--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{212A8978-8EAC-4379-A1AE-39570BA784CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A124D5A-B0B3-4424-8B27-78ED8D594A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9D2D1B1F-8A75-4609-91C8-F9D15A647120}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6FD2B4EB-CED8-4731-BEDC-8F63A0446C9E}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9671D36-F59C-4556-AF4F-F327992E5C85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222DA583-2B14-4975-ABA3-158BE3632BC5}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A124D5A-B0B3-4424-8B27-78ED8D594A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3F9003-EF08-4D14-BFC7-1DA0F4CC6AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6FD2B4EB-CED8-4731-BEDC-8F63A0446C9E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D45BD436-F646-4D09-807E-E21BFC787A90}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222DA583-2B14-4975-ABA3-158BE3632BC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348F9417-6FF1-4739-8592-E1781E09CB1F}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3F9003-EF08-4D14-BFC7-1DA0F4CC6AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B8C5888-14C8-4996-9177-823E9E88459D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D45BD436-F646-4D09-807E-E21BFC787A90}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E6F52677-5DE3-4165-9E4E-D79FDC587A39}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348F9417-6FF1-4739-8592-E1781E09CB1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB73469-11A0-4EE8-96D9-B541176F26FD}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B8C5888-14C8-4996-9177-823E9E88459D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E48A171-22D8-4AD0-BD3A-676306EB4442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E6F52677-5DE3-4165-9E4E-D79FDC587A39}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{600BC64A-DF72-4D89-AC36-E8A2A5B94EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB73469-11A0-4EE8-96D9-B541176F26FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCACC40-C647-4FB6-8F49-CDE4FA3BE8A8}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E48A171-22D8-4AD0-BD3A-676306EB4442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4F7FDC2-38FE-40F4-9671-3944A1312099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{600BC64A-DF72-4D89-AC36-E8A2A5B94EC9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{197D6624-385C-440E-B17C-2D2F960DCC42}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCACC40-C647-4FB6-8F49-CDE4FA3BE8A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDC81CE-EC6D-4BB0-BE29-0EB00B5A0A59}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4F7FDC2-38FE-40F4-9671-3944A1312099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D5DA1DA-81A1-48A7-9F5E-2437DBBB1A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{197D6624-385C-440E-B17C-2D2F960DCC42}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C6CC2BBE-D3BC-4ED8-94A8-C9FC5D350FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDC81CE-EC6D-4BB0-BE29-0EB00B5A0A59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C29EF80-8B0A-4123-BADE-D194714ED120}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D5DA1DA-81A1-48A7-9F5E-2437DBBB1A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85831B02-F865-4B72-AD7B-ED06CCA422CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C6CC2BBE-D3BC-4ED8-94A8-C9FC5D350FC8}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" xr2:uid="{7D64E601-AFF8-4E3C-8446-107871329E6C}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C29EF80-8B0A-4123-BADE-D194714ED120}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D50B41-9A89-4470-9A6A-FCACCBE82EEF}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85831B02-F865-4B72-AD7B-ED06CCA422CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{192A37CB-92FF-4E1A-9992-D7D5E4D8C239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="12682" xr2:uid="{7D64E601-AFF8-4E3C-8446-107871329E6C}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" xr2:uid="{905DCBB0-522C-416F-A0AE-7850698BEE2A}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D50B41-9A89-4470-9A6A-FCACCBE82EEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2129969-5E72-43C9-8476-5683DA724896}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{192A37CB-92FF-4E1A-9992-D7D5E4D8C239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16ABF6B6-50C1-4B74-AA66-6A3D547876CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" xr2:uid="{905DCBB0-522C-416F-A0AE-7850698BEE2A}"/>
+    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" xr2:uid="{706DAD3C-580A-4E56-A512-B975BFB740DA}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2129969-5E72-43C9-8476-5683DA724896}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08391F45-B245-4C04-B414-33AE2908E32D}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16ABF6B6-50C1-4B74-AA66-6A3D547876CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{163ED2B2-7A7E-4D97-A41A-F9E4009CA071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" xr2:uid="{706DAD3C-580A-4E56-A512-B975BFB740DA}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" xr2:uid="{D995FDD3-E657-4EAE-B9F8-9836802A8644}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08391F45-B245-4C04-B414-33AE2908E32D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB27345C-2CBD-4677-B62F-157D6A65C02E}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{163ED2B2-7A7E-4D97-A41A-F9E4009CA071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F26FC399-933C-4E21-A091-03177053805E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" xr2:uid="{D995FDD3-E657-4EAE-B9F8-9836802A8644}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" xr2:uid="{6A1FAC98-5280-40E2-8FD7-A394441D83FB}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB27345C-2CBD-4677-B62F-157D6A65C02E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58064234-24B9-4967-BA9B-CBCF4AF9FB9A}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F26FC399-933C-4E21-A091-03177053805E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6389299E-542D-4784-8843-5EBACC22096D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" xr2:uid="{6A1FAC98-5280-40E2-8FD7-A394441D83FB}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{E24A4FBD-80A0-4020-8C13-D614D03883D6}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58064234-24B9-4967-BA9B-CBCF4AF9FB9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34561170-749B-49A3-83ED-211CC2E9F688}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6389299E-542D-4784-8843-5EBACC22096D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0567E5F7-2061-49A6-B639-71632B02AB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{E24A4FBD-80A0-4020-8C13-D614D03883D6}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" xr2:uid="{B76C825A-AF2E-4593-BC9F-8054BBF9F6CC}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34561170-749B-49A3-83ED-211CC2E9F688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0073976-42E9-47F3-8F0A-6F1F30A04589}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0567E5F7-2061-49A6-B639-71632B02AB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17859497-AD8D-4C89-A4FD-BDF8A7521890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="12682" xr2:uid="{B76C825A-AF2E-4593-BC9F-8054BBF9F6CC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9FE8ABA4-E639-4F21-A54B-8DE085816708}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0073976-42E9-47F3-8F0A-6F1F30A04589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8537E395-20D3-46F5-BAF4-9745F19D95A4}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17859497-AD8D-4C89-A4FD-BDF8A7521890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F20282D-8383-4AA4-BE10-2A2ED50A1954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{9FE8ABA4-E639-4F21-A54B-8DE085816708}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3B9D2871-6B21-45BF-8707-3F897C3ACBF6}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8537E395-20D3-46F5-BAF4-9745F19D95A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0106DC0-71CA-4147-B3B7-040DBB690193}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F20282D-8383-4AA4-BE10-2A2ED50A1954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4492F802-7500-4606-A54F-21A298CE5541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3B9D2871-6B21-45BF-8707-3F897C3ACBF6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{33720EF0-EDF3-4854-8F3D-0F45CB950712}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0106DC0-71CA-4147-B3B7-040DBB690193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A76AB0-5AA9-4228-8810-F57F303D7C77}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4492F802-7500-4606-A54F-21A298CE5541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09267E1F-61C5-40E8-93F3-0E081F33604A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{33720EF0-EDF3-4854-8F3D-0F45CB950712}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FFFBF1EA-A32F-47C7-92FF-E4370A48F78F}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A76AB0-5AA9-4228-8810-F57F303D7C77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8425808-11BE-4372-92CC-03C9D9434296}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09267E1F-61C5-40E8-93F3-0E081F33604A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9445CAC6-3F13-4959-9987-69876018CF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FFFBF1EA-A32F-47C7-92FF-E4370A48F78F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{02995467-0274-4214-857A-8FD3B3B12D27}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8425808-11BE-4372-92CC-03C9D9434296}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C69AC3-BC8A-41F4-A484-D204BC6F2AE0}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9445CAC6-3F13-4959-9987-69876018CF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99650741-EEBD-4681-848A-D1267D8737E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{02995467-0274-4214-857A-8FD3B3B12D27}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{40C7FEEC-8F0D-4DC0-BF72-94C69678BDEC}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C69AC3-BC8A-41F4-A484-D204BC6F2AE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F4EAE0-C801-493F-9D14-69E58B84D197}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99650741-EEBD-4681-848A-D1267D8737E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECD5BD0B-EEB2-4C31-8744-F149BE5AB004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{40C7FEEC-8F0D-4DC0-BF72-94C69678BDEC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3129BA95-FFB4-4F90-A9EB-2DE39A1C7F60}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F4EAE0-C801-493F-9D14-69E58B84D197}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4384A2AE-E3C7-4C8A-8F7E-7454498D6CF7}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECD5BD0B-EEB2-4C31-8744-F149BE5AB004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F90E895-1D90-4A6B-9721-40CD574F38DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3129BA95-FFB4-4F90-A9EB-2DE39A1C7F60}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1DB133D3-C16F-4DA8-B837-357FFBABBF75}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4384A2AE-E3C7-4C8A-8F7E-7454498D6CF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B74FF7-CA55-424F-9CBE-17137CB62232}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F90E895-1D90-4A6B-9721-40CD574F38DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1799FC5F-5966-4EC2-BCFD-A9BBB5ED752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1DB133D3-C16F-4DA8-B837-357FFBABBF75}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3435A59A-1CA7-4375-93D8-31C3C2845D61}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B74FF7-CA55-424F-9CBE-17137CB62232}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F176194-E9C8-4A01-834C-DB64D31ED27A}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1799FC5F-5966-4EC2-BCFD-A9BBB5ED752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B38E21-1345-4A36-A3FA-9EE7622FCE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3435A59A-1CA7-4375-93D8-31C3C2845D61}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D5D6B541-C6A3-4B62-BA8D-81A41D63B0CC}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F176194-E9C8-4A01-834C-DB64D31ED27A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614CAEF5-A82C-4245-A47D-C8AFE950063B}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83B38E21-1345-4A36-A3FA-9EE7622FCE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA0E2A9-D024-4684-A22D-7964A1CCC976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D5D6B541-C6A3-4B62-BA8D-81A41D63B0CC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2BCCA913-ACC2-4837-99DF-1FD02B5AEBC7}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614CAEF5-A82C-4245-A47D-C8AFE950063B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299881EC-1DEA-4811-B0D3-CCF4613D57C9}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FA0E2A9-D024-4684-A22D-7964A1CCC976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96AB942D-0AD4-481D-A23B-1C49C0754120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2BCCA913-ACC2-4837-99DF-1FD02B5AEBC7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{64470FB4-345A-4C0A-BBB1-9138BE6A51CC}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299881EC-1DEA-4811-B0D3-CCF4613D57C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AD97A9-3930-4637-84EF-9C34077F5805}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96AB942D-0AD4-481D-A23B-1C49C0754120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ECF6294-AD6B-43C5-9052-F3E9AE9782DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{64470FB4-345A-4C0A-BBB1-9138BE6A51CC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F9608F65-7CFF-4712-9A4B-913E20B8259B}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AD97A9-3930-4637-84EF-9C34077F5805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48EA986-B5B1-47A1-93F6-007ABD5AD29A}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB36D6C9-39B2-4488-A7FB-5D89FD9F2D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB9AA863-FA38-4041-B2FC-AF2182371364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E395AA47-DA69-4020-AA5C-154E7329BA28}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F1B08A3F-2416-40CC-8392-10750F4CD152}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5032F9B-0941-443D-B539-13FB200532D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063074EA-12E0-40D8-8C39-8A996B6F3720}">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB9AA863-FA38-4041-B2FC-AF2182371364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A15CFF5E-BAF7-4EFB-98F7-C444A3F08FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F1B08A3F-2416-40CC-8392-10750F4CD152}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C6C2F6AC-84D4-4254-A54D-AA998AAA1832}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063074EA-12E0-40D8-8C39-8A996B6F3720}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C2832E-9529-4A63-8080-5A34BBC83679}">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A15CFF5E-BAF7-4EFB-98F7-C444A3F08FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EF7158F-6FA3-40B8-B4BF-FA5E62CC9123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C6C2F6AC-84D4-4254-A54D-AA998AAA1832}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E7935DB6-7402-4D94-A62E-C39BD7C6F665}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C2832E-9529-4A63-8080-5A34BBC83679}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887AFA53-E9FB-4244-92E5-7E90981D29D9}">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EF7158F-6FA3-40B8-B4BF-FA5E62CC9123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13C1549F-B0C7-4861-BE7F-6EF4BBBF3736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E7935DB6-7402-4D94-A62E-C39BD7C6F665}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{04B8B66D-DA6E-42DC-9D5E-7ABA2DF62522}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887AFA53-E9FB-4244-92E5-7E90981D29D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4729DD43-EA6B-49B0-BCF2-26FF34AEF113}">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13C1549F-B0C7-4861-BE7F-6EF4BBBF3736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D8A511E-3FCF-4533-B8BD-A04BE0C66AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{04B8B66D-DA6E-42DC-9D5E-7ABA2DF62522}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{10F881D3-B377-4103-B1FA-9794BCD98DDE}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4729DD43-EA6B-49B0-BCF2-26FF34AEF113}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EB969B-FD75-4DC1-B528-FF5BDDEAF68F}">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D8A511E-3FCF-4533-B8BD-A04BE0C66AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D2B6817-FBAD-4E15-A85B-F0277B97893F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{10F881D3-B377-4103-B1FA-9794BCD98DDE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6868F72C-93EA-4183-BD69-B27B868D01BA}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EB969B-FD75-4DC1-B528-FF5BDDEAF68F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DCE921-B0E8-4A14-9D20-CF11E1BB31EA}">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A44AFE3-8837-4037-9CB0-A6164B9DBE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45DADE9D-0352-40B5-9E1C-B4B58BC43775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4043" yWindow="4043" windowWidth="21599" windowHeight="12682" xr2:uid="{833591AA-03AF-467A-9292-7D8DB5FC11FA}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" xr2:uid="{8CE4F7FA-5AA1-4F7A-8800-E04182908632}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -612,7 +612,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33969CB3-C67E-C7B4-549F-DF89C78EF943}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606164BE-72F1-DF8D-7013-99682D60A237}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9F11CA-E305-494C-9EF3-9910E0091218}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D47A2A2-CE15-4DA1-812E-E64DE7A8EDD7}">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45DADE9D-0352-40B5-9E1C-B4B58BC43775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C42D672F-54F3-466E-A48B-A34DAB4686CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" xr2:uid="{8CE4F7FA-5AA1-4F7A-8800-E04182908632}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" xr2:uid="{AA31A099-E6F0-4588-8218-84BBE8FE67D7}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -612,7 +612,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606164BE-72F1-DF8D-7013-99682D60A237}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3FD35E0-55C2-F52C-05EB-C0F45E1CE6B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D47A2A2-CE15-4DA1-812E-E64DE7A8EDD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB6C233-F079-4BD0-92D8-040AB91594AC}">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C42D672F-54F3-466E-A48B-A34DAB4686CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F0F41C3-7302-4238-8C55-3670D3A8DD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" xr2:uid="{AA31A099-E6F0-4588-8218-84BBE8FE67D7}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{EAAD6F38-4F2E-4F94-A921-7C37DADC2851}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -612,7 +612,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3FD35E0-55C2-F52C-05EB-C0F45E1CE6B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B883A41-4CD7-4E21-8E5E-1008F35E5FAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB6C233-F079-4BD0-92D8-040AB91594AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F622E69B-C6E9-4FBE-B233-4E84B8142709}">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F0F41C3-7302-4238-8C55-3670D3A8DD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC028689-0532-4F94-A68B-B71D95813980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{EAAD6F38-4F2E-4F94-A921-7C37DADC2851}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" xr2:uid="{F2CC7ED1-0184-44A6-87E7-1B2440E170A9}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -612,7 +612,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B883A41-4CD7-4E21-8E5E-1008F35E5FAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82CC8F2-6BE0-3666-2570-43E10708E623}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F622E69B-C6E9-4FBE-B233-4E84B8142709}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20774710-318D-407D-983D-4FEA239E0D49}">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC028689-0532-4F94-A68B-B71D95813980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D722BF1-B235-4188-AC47-BBA0CB3634E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" xr2:uid="{F2CC7ED1-0184-44A6-87E7-1B2440E170A9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BCA202F9-F291-4BDA-8D68-D7DEF5604867}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -612,7 +612,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82CC8F2-6BE0-3666-2570-43E10708E623}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF57EF21-6412-AACE-0EF8-EA5EE6B4AA2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20774710-318D-407D-983D-4FEA239E0D49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95673755-5E18-4C12-8352-59416EE70035}">
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D722BF1-B235-4188-AC47-BBA0CB3634E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE2F8075-09B7-4F02-9EBC-0BF0D3861DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BCA202F9-F291-4BDA-8D68-D7DEF5604867}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3C393480-60BB-413B-9DE4-339586EFD5B9}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="446">
   <si>
     <t>~tradelinks_dins</t>
   </si>
@@ -71,262 +71,1069 @@
     <t>e_CH1-220</t>
   </si>
   <si>
+    <t>e_CH26-220</t>
+  </si>
+  <si>
+    <t>g_CH1-220-CH26-220</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>e_CH11-220</t>
+  </si>
+  <si>
+    <t>e_CH28-220</t>
+  </si>
+  <si>
+    <t>g_CH11-220-CH28-220</t>
+  </si>
+  <si>
+    <t>e_CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH11-220-CH35-220</t>
+  </si>
+  <si>
+    <t>e_w55695765-220</t>
+  </si>
+  <si>
+    <t>g_CH11-220-w55695765-220</t>
+  </si>
+  <si>
     <t>e_CH12-220</t>
   </si>
   <si>
-    <t>g_CH1-220-CH12-220</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>e_CH46-220</t>
+  </si>
+  <si>
+    <t>g_CH12-220-CH46-220</t>
+  </si>
+  <si>
+    <t>e_CH13-220</t>
+  </si>
+  <si>
+    <t>e_CH14-220</t>
+  </si>
+  <si>
+    <t>g_CH13-220-CH14-220</t>
+  </si>
+  <si>
+    <t>e_CH15-220</t>
+  </si>
+  <si>
+    <t>e_r5378910-220</t>
+  </si>
+  <si>
+    <t>g_CH15-220-r5378910-220</t>
+  </si>
+  <si>
+    <t>e_CH18-220</t>
+  </si>
+  <si>
+    <t>e_CH29-220</t>
+  </si>
+  <si>
+    <t>g_CH18-220-CH29-220</t>
+  </si>
+  <si>
+    <t>e_w146225999-220</t>
+  </si>
+  <si>
+    <t>g_CH18-220-w146225999-220</t>
+  </si>
+  <si>
+    <t>e_CH19-220</t>
+  </si>
+  <si>
+    <t>e_CH34-220</t>
+  </si>
+  <si>
+    <t>g_CH19-220-CH34-220</t>
+  </si>
+  <si>
+    <t>e_CH49-225</t>
+  </si>
+  <si>
+    <t>g_CH19-220-CH49-225</t>
+  </si>
+  <si>
+    <t>e_CH2-220</t>
+  </si>
+  <si>
+    <t>g_CH2-220-CH11-220</t>
+  </si>
+  <si>
+    <t>g_CH2-220-w55695765-220</t>
+  </si>
+  <si>
+    <t>e_w55698557-220</t>
+  </si>
+  <si>
+    <t>g_CH2-220-w55698557-220</t>
+  </si>
+  <si>
+    <t>e_CH20-220</t>
+  </si>
+  <si>
+    <t>g_CH20-220-CH18-220</t>
+  </si>
+  <si>
+    <t>e_CH37-380</t>
+  </si>
+  <si>
+    <t>g_CH20-220-CH37-380</t>
+  </si>
+  <si>
+    <t>e_CH60-225</t>
+  </si>
+  <si>
+    <t>g_CH20-220-CH60-225</t>
+  </si>
+  <si>
+    <t>e_CH21-220</t>
+  </si>
+  <si>
+    <t>g_CH21-220-CH11-220</t>
+  </si>
+  <si>
+    <t>g_CH21-220-CH2-220</t>
+  </si>
+  <si>
+    <t>g_CH21-220-CH35-220</t>
+  </si>
+  <si>
+    <t>e_CH22-220</t>
+  </si>
+  <si>
+    <t>e_w402055336-220</t>
+  </si>
+  <si>
+    <t>g_CH22-220-w402055336-220</t>
+  </si>
+  <si>
+    <t>e_CH23-220</t>
+  </si>
+  <si>
+    <t>e_CH25-220</t>
+  </si>
+  <si>
+    <t>g_CH23-220-CH25-220</t>
+  </si>
+  <si>
+    <t>e_CH47-220</t>
+  </si>
+  <si>
+    <t>g_CH23-220-CH47-220</t>
+  </si>
+  <si>
+    <t>e_CH59-220</t>
+  </si>
+  <si>
+    <t>g_CH23-220-CH59-220</t>
+  </si>
+  <si>
+    <t>e_w281800404-220</t>
+  </si>
+  <si>
+    <t>g_CH23-220-w281800404-220</t>
+  </si>
+  <si>
+    <t>e_CH24-220</t>
   </si>
   <si>
     <t>e_CH16-380</t>
   </si>
   <si>
-    <t>g_CH1-220-CH16-380</t>
-  </si>
-  <si>
-    <t>e_CH18-220</t>
-  </si>
-  <si>
-    <t>g_CH1-220-CH18-220</t>
+    <t>g_CH24-220-CH16-380</t>
+  </si>
+  <si>
+    <t>e_CH17-380</t>
+  </si>
+  <si>
+    <t>g_CH24-220-CH17-380</t>
+  </si>
+  <si>
+    <t>e_w140873735-220</t>
+  </si>
+  <si>
+    <t>g_CH24-220-w140873735-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-CH12-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-CH23-220</t>
+  </si>
+  <si>
+    <t>e_CH44-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-CH44-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-CH46-220</t>
+  </si>
+  <si>
+    <t>e_w281822905-220</t>
+  </si>
+  <si>
+    <t>g_CH25-220-w281822905-220</t>
+  </si>
+  <si>
+    <t>g_CH26-220-CH13-220</t>
+  </si>
+  <si>
+    <t>e_CH27-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-CH25-220</t>
+  </si>
+  <si>
+    <t>e_CH38-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-CH38-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-CH46-220</t>
+  </si>
+  <si>
+    <t>e_w50319857-220</t>
+  </si>
+  <si>
+    <t>g_CH27-220-w50319857-220</t>
+  </si>
+  <si>
+    <t>g_CH28-220-CH29-220</t>
+  </si>
+  <si>
+    <t>e_w281804158-220</t>
+  </si>
+  <si>
+    <t>g_CH28-220-w281804158-220</t>
+  </si>
+  <si>
+    <t>e_CH3-220</t>
+  </si>
+  <si>
+    <t>g_CH3-220-CH18-220</t>
+  </si>
+  <si>
+    <t>e_CH31-220</t>
+  </si>
+  <si>
+    <t>e_CH36-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-CH36-220</t>
+  </si>
+  <si>
+    <t>e_CH45-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-CH45-220</t>
+  </si>
+  <si>
+    <t>e_w22899676-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-w22899676-220</t>
+  </si>
+  <si>
+    <t>e_w31308888-220</t>
+  </si>
+  <si>
+    <t>g_CH31-220-w31308888-220</t>
+  </si>
+  <si>
+    <t>e_w35840165-380</t>
+  </si>
+  <si>
+    <t>g_CH31-220-w35840165-380</t>
+  </si>
+  <si>
+    <t>e_CH32-220</t>
+  </si>
+  <si>
+    <t>g_CH32-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_CH32-220-CH35-220</t>
+  </si>
+  <si>
+    <t>e_CH43-220</t>
+  </si>
+  <si>
+    <t>g_CH32-220-CH43-220</t>
+  </si>
+  <si>
+    <t>e_w232662311-220</t>
+  </si>
+  <si>
+    <t>g_CH32-220-w232662311-220</t>
+  </si>
+  <si>
+    <t>e_CH33-380</t>
+  </si>
+  <si>
+    <t>g_CH33-380-CH15-220</t>
+  </si>
+  <si>
+    <t>e_CH40-220</t>
+  </si>
+  <si>
+    <t>g_CH33-380-CH40-220</t>
+  </si>
+  <si>
+    <t>g_CH34-220-CH35-220</t>
+  </si>
+  <si>
+    <t>e_CH41-380</t>
+  </si>
+  <si>
+    <t>g_CH35-220-CH41-380</t>
+  </si>
+  <si>
+    <t>e_w44496892-220</t>
+  </si>
+  <si>
+    <t>g_CH35-220-w44496892-220</t>
+  </si>
+  <si>
+    <t>g_CH36-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH36-220-CH44-220</t>
+  </si>
+  <si>
+    <t>e_w242269161-220</t>
+  </si>
+  <si>
+    <t>g_CH37-380-w242269161-220</t>
+  </si>
+  <si>
+    <t>g_CH38-220-CH26-220</t>
+  </si>
+  <si>
+    <t>e_CH50-220</t>
+  </si>
+  <si>
+    <t>g_CH38-220-CH50-220</t>
+  </si>
+  <si>
+    <t>e_CH39-220</t>
+  </si>
+  <si>
+    <t>g_CH39-220-CH18-220</t>
+  </si>
+  <si>
+    <t>g_CH39-220-CH29-220</t>
+  </si>
+  <si>
+    <t>e_w88901626-380</t>
+  </si>
+  <si>
+    <t>g_CH39-220-w88901626-380</t>
+  </si>
+  <si>
+    <t>e_CH4-220</t>
+  </si>
+  <si>
+    <t>g_CH4-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_CH40-220-CH33-380</t>
+  </si>
+  <si>
+    <t>e_w122720993-220</t>
+  </si>
+  <si>
+    <t>g_CH40-220-w122720993-220</t>
+  </si>
+  <si>
+    <t>e_w52738225-220</t>
+  </si>
+  <si>
+    <t>g_CH40-220-w52738225-220</t>
+  </si>
+  <si>
+    <t>g_CH41-380-CH22-220</t>
+  </si>
+  <si>
+    <t>g_CH41-380-CH23-220</t>
+  </si>
+  <si>
+    <t>e_w35487135-220</t>
+  </si>
+  <si>
+    <t>g_CH41-380-w35487135-220</t>
+  </si>
+  <si>
+    <t>e_CH42-220</t>
+  </si>
+  <si>
+    <t>g_CH42-220-CH49-225</t>
+  </si>
+  <si>
+    <t>e_w234983117-220</t>
+  </si>
+  <si>
+    <t>g_CH43-220-w234983117-220</t>
+  </si>
+  <si>
+    <t>g_CH44-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_CH44-220-CH36-220</t>
+  </si>
+  <si>
+    <t>e_w238138373-380</t>
+  </si>
+  <si>
+    <t>g_CH45-220-w238138373-380</t>
+  </si>
+  <si>
+    <t>e_w98648381-220</t>
+  </si>
+  <si>
+    <t>g_CH45-220-w98648381-220</t>
+  </si>
+  <si>
+    <t>g_CH47-220-CH38-220</t>
+  </si>
+  <si>
+    <t>e_CH48-225</t>
+  </si>
+  <si>
+    <t>g_CH48-225-CH11-220</t>
+  </si>
+  <si>
+    <t>e_CH5-220</t>
+  </si>
+  <si>
+    <t>g_CH48-225-CH5-220</t>
+  </si>
+  <si>
+    <t>g_CH49-225-CH35-220</t>
+  </si>
+  <si>
+    <t>g_CH5-220-CH48-225</t>
+  </si>
+  <si>
+    <t>e_w455120191-220</t>
+  </si>
+  <si>
+    <t>g_CH50-220-w455120191-220</t>
   </si>
   <si>
     <t>e_CH51-220</t>
   </si>
   <si>
-    <t>g_CH1-220-CH51-220</t>
+    <t>e_CH52-220</t>
+  </si>
+  <si>
+    <t>g_CH51-220-CH52-220</t>
+  </si>
+  <si>
+    <t>e_CH56-220</t>
+  </si>
+  <si>
+    <t>g_CH52-220-CH56-220</t>
+  </si>
+  <si>
+    <t>e_CH53-225</t>
+  </si>
+  <si>
+    <t>e_w30350721-220</t>
+  </si>
+  <si>
+    <t>g_CH53-225-w30350721-220</t>
+  </si>
+  <si>
+    <t>e_CH58-220</t>
+  </si>
+  <si>
+    <t>g_CH56-220-CH58-220</t>
+  </si>
+  <si>
+    <t>e_CH57-220</t>
+  </si>
+  <si>
+    <t>g_CH57-220-CH53-225</t>
+  </si>
+  <si>
+    <t>e_w207993342-220</t>
+  </si>
+  <si>
+    <t>g_CH57-220-w207993342-220</t>
+  </si>
+  <si>
+    <t>e_w71500123-220</t>
+  </si>
+  <si>
+    <t>g_CH58-220-w71500123-220</t>
+  </si>
+  <si>
+    <t>e_w365556107-220</t>
+  </si>
+  <si>
+    <t>g_CH59-220-w365556107-220</t>
+  </si>
+  <si>
+    <t>e_CH6-220</t>
+  </si>
+  <si>
+    <t>e_CH9-220</t>
+  </si>
+  <si>
+    <t>g_CH6-220-CH9-220</t>
+  </si>
+  <si>
+    <t>e_w26166640-220</t>
+  </si>
+  <si>
+    <t>g_CH6-220-w26166640-220</t>
+  </si>
+  <si>
+    <t>e_w212722603-220</t>
+  </si>
+  <si>
+    <t>g_CH60-225-w212722603-220</t>
+  </si>
+  <si>
+    <t>e_CH7-220</t>
+  </si>
+  <si>
+    <t>e_w364949845-220</t>
+  </si>
+  <si>
+    <t>g_CH7-220-w364949845-220</t>
+  </si>
+  <si>
+    <t>e_r9310861-220</t>
+  </si>
+  <si>
+    <t>g_CH9-220-r9310861-220</t>
   </si>
   <si>
     <t>e_r7933294-380</t>
   </si>
   <si>
-    <t>g_CH1-220-r7933294-380</t>
-  </si>
-  <si>
-    <t>e_w122720993-220</t>
-  </si>
-  <si>
-    <t>g_CH1-220-w122720993-220</t>
-  </si>
-  <si>
-    <t>g_CH12-220-CH1-220</t>
-  </si>
-  <si>
-    <t>e_CH17-380</t>
-  </si>
-  <si>
-    <t>g_CH12-220-CH17-380</t>
-  </si>
-  <si>
-    <t>e_CH19-220</t>
-  </si>
-  <si>
-    <t>g_CH12-220-CH19-220</t>
-  </si>
-  <si>
-    <t>g_CH12-220-CH51-220</t>
+    <t>g_r7933294-380-CH57-220</t>
+  </si>
+  <si>
+    <t>e_w108257952-220</t>
+  </si>
+  <si>
+    <t>g_r7933294-380-w108257952-220</t>
+  </si>
+  <si>
+    <t>e_w260211728-225</t>
+  </si>
+  <si>
+    <t>g_r9310861-220-w260211728-225</t>
+  </si>
+  <si>
+    <t>e_w100662075-220</t>
+  </si>
+  <si>
+    <t>g_w100662075-220-w108257952-220</t>
+  </si>
+  <si>
+    <t>e_w208780268-380</t>
+  </si>
+  <si>
+    <t>g_w100662075-220-w208780268-380</t>
+  </si>
+  <si>
+    <t>g_w108257952-220-r7933294-380</t>
+  </si>
+  <si>
+    <t>e_w1086214433-220</t>
+  </si>
+  <si>
+    <t>e_w165254212-220</t>
+  </si>
+  <si>
+    <t>g_w1086214433-220-w165254212-220</t>
+  </si>
+  <si>
+    <t>e_w97941869-220</t>
+  </si>
+  <si>
+    <t>g_w1086214433-220-w97941869-220</t>
+  </si>
+  <si>
+    <t>e_w109037817-220</t>
+  </si>
+  <si>
+    <t>g_w109037817-220-r5378910-220</t>
+  </si>
+  <si>
+    <t>e_w1092884227-220</t>
+  </si>
+  <si>
+    <t>g_w1092884227-220-CH26-220</t>
+  </si>
+  <si>
+    <t>e_CH30-380</t>
+  </si>
+  <si>
+    <t>g_w1092884227-220-CH30-380</t>
+  </si>
+  <si>
+    <t>e_w1105061707-220</t>
+  </si>
+  <si>
+    <t>g_w1105061707-220-CH4-220</t>
+  </si>
+  <si>
+    <t>e_w111162936-220</t>
+  </si>
+  <si>
+    <t>e_w11282314-220</t>
+  </si>
+  <si>
+    <t>g_w111162936-220-w11282314-220</t>
+  </si>
+  <si>
+    <t>g_w111162936-220-w55698557-220</t>
+  </si>
+  <si>
+    <t>g_w11282314-220-CH29-220</t>
+  </si>
+  <si>
+    <t>e_w1208713169-220</t>
+  </si>
+  <si>
+    <t>g_w1208713169-220-CH14-220</t>
   </si>
   <si>
     <t>e_w127004407-380</t>
   </si>
   <si>
-    <t>g_CH12-220-w127004407-380</t>
-  </si>
-  <si>
-    <t>g_CH16-380-CH19-220</t>
-  </si>
-  <si>
-    <t>e_CH32-220</t>
-  </si>
-  <si>
-    <t>g_CH16-380-CH32-220</t>
-  </si>
-  <si>
-    <t>g_CH17-380-w127004407-380</t>
-  </si>
-  <si>
-    <t>g_CH18-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH18-220-CH19-220</t>
-  </si>
-  <si>
-    <t>e_CH31-220</t>
-  </si>
-  <si>
-    <t>g_CH18-220-CH31-220</t>
-  </si>
-  <si>
-    <t>e_CH46-220</t>
-  </si>
-  <si>
-    <t>g_CH18-220-CH46-220</t>
-  </si>
-  <si>
-    <t>e_w232662311-220</t>
-  </si>
-  <si>
-    <t>g_CH18-220-w232662311-220</t>
-  </si>
-  <si>
-    <t>g_CH19-220-CH12-220</t>
-  </si>
-  <si>
-    <t>g_CH19-220-w127004407-380</t>
-  </si>
-  <si>
-    <t>e_CH21-220</t>
-  </si>
-  <si>
-    <t>g_CH21-220-CH19-220</t>
+    <t>g_w122720993-220-w127004407-380</t>
+  </si>
+  <si>
+    <t>g_w127004407-380-CH28-220</t>
+  </si>
+  <si>
+    <t>e_w130198336-220</t>
+  </si>
+  <si>
+    <t>e_w1284913429-220</t>
+  </si>
+  <si>
+    <t>g_w130198336-220-w1284913429-220</t>
+  </si>
+  <si>
+    <t>e_w132373704-220</t>
+  </si>
+  <si>
+    <t>e_w969811258-220</t>
+  </si>
+  <si>
+    <t>g_w132373704-220-w969811258-220</t>
+  </si>
+  <si>
+    <t>e_w1327084723-220</t>
+  </si>
+  <si>
+    <t>g_w1327084723-220-CH30-380</t>
+  </si>
+  <si>
+    <t>g_w146225999-220-CH37-380</t>
+  </si>
+  <si>
+    <t>g_w146225999-220-w130198336-220</t>
+  </si>
+  <si>
+    <t>e_w147557680-220</t>
+  </si>
+  <si>
+    <t>e_w147714395-220</t>
+  </si>
+  <si>
+    <t>g_w147557680-220-w147714395-220</t>
+  </si>
+  <si>
+    <t>e_w391576135-220</t>
+  </si>
+  <si>
+    <t>g_w147557680-220-w391576135-220</t>
+  </si>
+  <si>
+    <t>e_w148015471-220</t>
+  </si>
+  <si>
+    <t>e_w36348118-220</t>
+  </si>
+  <si>
+    <t>g_w148015471-220-w36348118-220</t>
+  </si>
+  <si>
+    <t>e_w159527493-220</t>
+  </si>
+  <si>
+    <t>g_w159527493-220-CH59-220</t>
+  </si>
+  <si>
+    <t>e_w161853746-220</t>
+  </si>
+  <si>
+    <t>e_w92873516-220</t>
+  </si>
+  <si>
+    <t>g_w161853746-220-w92873516-220</t>
+  </si>
+  <si>
+    <t>e_w758943072-220</t>
+  </si>
+  <si>
+    <t>g_w165254212-220-w758943072-220</t>
+  </si>
+  <si>
+    <t>e_w177392130-220</t>
+  </si>
+  <si>
+    <t>g_w177392130-220-CH2-220</t>
+  </si>
+  <si>
+    <t>e_w190819048-220</t>
+  </si>
+  <si>
+    <t>g_w190819048-220-CH6-220</t>
+  </si>
+  <si>
+    <t>e_w192677427-220</t>
+  </si>
+  <si>
+    <t>e_w209324991-220</t>
+  </si>
+  <si>
+    <t>g_w192677427-220-w209324991-220</t>
+  </si>
+  <si>
+    <t>e_w194258388-220</t>
+  </si>
+  <si>
+    <t>g_w194258388-220-CH27-220</t>
+  </si>
+  <si>
+    <t>e_w207991759-380</t>
+  </si>
+  <si>
+    <t>g_w207991759-380-CH31-220</t>
+  </si>
+  <si>
+    <t>g_w207991759-380-w402055336-220</t>
+  </si>
+  <si>
+    <t>g_w209324991-220-CH1-220</t>
+  </si>
+  <si>
+    <t>g_w209324991-220-w159527493-220</t>
+  </si>
+  <si>
+    <t>e_w210568055-220</t>
+  </si>
+  <si>
+    <t>g_w210568055-220-CH26-220</t>
+  </si>
+  <si>
+    <t>e_w27435934-220</t>
+  </si>
+  <si>
+    <t>g_w210568055-220-w27435934-220</t>
+  </si>
+  <si>
+    <t>e_w211907009-220</t>
+  </si>
+  <si>
+    <t>g_w211907009-220-CH2-220</t>
   </si>
   <si>
     <t>e_w228003081-220</t>
   </si>
   <si>
-    <t>g_CH21-220-w228003081-220</t>
-  </si>
-  <si>
-    <t>e_CH30-380</t>
-  </si>
-  <si>
-    <t>e_CH45-220</t>
-  </si>
-  <si>
-    <t>g_CH30-380-CH45-220</t>
-  </si>
-  <si>
-    <t>e_CH48-225</t>
-  </si>
-  <si>
-    <t>g_CH30-380-CH48-225</t>
-  </si>
-  <si>
-    <t>g_CH31-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH31-220-CH46-220</t>
-  </si>
-  <si>
-    <t>g_CH32-220-CH12-220</t>
-  </si>
-  <si>
-    <t>e_CH4-220</t>
-  </si>
-  <si>
-    <t>g_CH4-220-CH19-220</t>
-  </si>
-  <si>
-    <t>e_CH41-380</t>
-  </si>
-  <si>
-    <t>g_CH41-380-CH45-220</t>
-  </si>
-  <si>
-    <t>e_CH43-220</t>
-  </si>
-  <si>
-    <t>g_CH43-220-CH18-220</t>
-  </si>
-  <si>
-    <t>g_CH43-220-r7933294-380</t>
-  </si>
-  <si>
-    <t>e_w108257952-220</t>
-  </si>
-  <si>
-    <t>g_CH43-220-w108257952-220</t>
-  </si>
-  <si>
-    <t>e_w212722603-220</t>
-  </si>
-  <si>
-    <t>g_CH45-220-w212722603-220</t>
-  </si>
-  <si>
-    <t>e_w758943072-220</t>
-  </si>
-  <si>
-    <t>g_CH45-220-w758943072-220</t>
-  </si>
-  <si>
-    <t>g_CH46-220-CH4-220</t>
-  </si>
-  <si>
-    <t>e_CH50-220</t>
-  </si>
-  <si>
-    <t>g_CH50-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH50-220-CH41-380</t>
-  </si>
-  <si>
-    <t>g_CH51-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_CH51-220-CH12-220</t>
-  </si>
-  <si>
-    <t>e_r5378910-220</t>
-  </si>
-  <si>
-    <t>g_r5378910-220-CH1-220</t>
-  </si>
-  <si>
-    <t>g_r5378910-220-CH50-220</t>
-  </si>
-  <si>
-    <t>g_r7933294-380-CH43-220</t>
-  </si>
-  <si>
-    <t>g_r7933294-380-CH45-220</t>
-  </si>
-  <si>
-    <t>g_w122720993-220-CH32-220</t>
-  </si>
-  <si>
-    <t>e_w194258388-220</t>
-  </si>
-  <si>
-    <t>g_w194258388-220-CH19-220</t>
-  </si>
-  <si>
-    <t>e_w207991759-380</t>
-  </si>
-  <si>
-    <t>g_w207991759-380-CH21-220</t>
-  </si>
-  <si>
-    <t>e_w209324991-220</t>
-  </si>
-  <si>
-    <t>g_w209324991-220-CH50-220</t>
-  </si>
-  <si>
-    <t>g_w212722603-220-w209324991-220</t>
+    <t>g_w228003081-220-w1105061707-220</t>
+  </si>
+  <si>
+    <t>g_w228003081-220-w36348118-220</t>
+  </si>
+  <si>
+    <t>g_w22899676-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_w22899676-220-CH51-220</t>
+  </si>
+  <si>
+    <t>e_w212498548-220</t>
+  </si>
+  <si>
+    <t>g_w22899676-220-w212498548-220</t>
+  </si>
+  <si>
+    <t>g_w232662311-220-CH31-220</t>
+  </si>
+  <si>
+    <t>g_w234983117-220-CH11-220</t>
+  </si>
+  <si>
+    <t>e_w236819191-220</t>
+  </si>
+  <si>
+    <t>g_w236819191-220-w192677427-220</t>
+  </si>
+  <si>
+    <t>e_w402053379-220</t>
+  </si>
+  <si>
+    <t>g_w236819191-220-w402053379-220</t>
+  </si>
+  <si>
+    <t>g_w238138373-380-w30350721-220</t>
+  </si>
+  <si>
+    <t>e_w239937062-220</t>
+  </si>
+  <si>
+    <t>g_w239937062-220-CH2-220</t>
+  </si>
+  <si>
+    <t>g_w239937062-220-w177392130-220</t>
+  </si>
+  <si>
+    <t>e_w240575085-220</t>
+  </si>
+  <si>
+    <t>g_w240575085-220-w234983117-220</t>
+  </si>
+  <si>
+    <t>e_w240959264-220</t>
+  </si>
+  <si>
+    <t>g_w240959264-220-CH35-220</t>
+  </si>
+  <si>
+    <t>g_w240959264-220-w161853746-220</t>
+  </si>
+  <si>
+    <t>g_w242269161-220-w211907009-220</t>
+  </si>
+  <si>
+    <t>g_w26166640-220-CH26-220</t>
+  </si>
+  <si>
+    <t>e_w26843160-220</t>
+  </si>
+  <si>
+    <t>e_w87281514-220</t>
+  </si>
+  <si>
+    <t>g_w26843160-220-w87281514-220</t>
+  </si>
+  <si>
+    <t>e_w27107779-220</t>
+  </si>
+  <si>
+    <t>g_w27107779-220-CH50-220</t>
+  </si>
+  <si>
+    <t>g_w27107779-220-w758943072-220</t>
+  </si>
+  <si>
+    <t>g_w281800404-220-CH59-220</t>
+  </si>
+  <si>
+    <t>e_w281803398-220</t>
+  </si>
+  <si>
+    <t>g_w281803398-220-CH20-220</t>
+  </si>
+  <si>
+    <t>g_w281804158-220-w127004407-380</t>
+  </si>
+  <si>
+    <t>e_w281799252-220</t>
+  </si>
+  <si>
+    <t>g_w281804158-220-w281799252-220</t>
+  </si>
+  <si>
+    <t>e_w281809991-220</t>
+  </si>
+  <si>
+    <t>g_w281809991-220-CH3-220</t>
+  </si>
+  <si>
+    <t>e_w281815404-220</t>
+  </si>
+  <si>
+    <t>g_w281815404-220-w140873735-220</t>
+  </si>
+  <si>
+    <t>g_w281815404-220-w212722603-220</t>
+  </si>
+  <si>
+    <t>g_w281822905-220-w159527493-220</t>
+  </si>
+  <si>
+    <t>g_w30350721-220-CH5-220</t>
+  </si>
+  <si>
+    <t>g_w30350721-220-CH57-220</t>
+  </si>
+  <si>
+    <t>g_w30350721-220-w26843160-220</t>
+  </si>
+  <si>
+    <t>g_w31308888-220-CH11-220</t>
+  </si>
+  <si>
+    <t>e_w33271433-220</t>
+  </si>
+  <si>
+    <t>g_w33271433-220-w87281514-220</t>
+  </si>
+  <si>
+    <t>e_w35002638-220</t>
+  </si>
+  <si>
+    <t>e_w969819301-220</t>
+  </si>
+  <si>
+    <t>g_w35002638-220-w969819301-220</t>
+  </si>
+  <si>
+    <t>g_w35487135-220-CH23-220</t>
+  </si>
+  <si>
+    <t>e_w356292116-220</t>
+  </si>
+  <si>
+    <t>g_w356292116-220-CH19-220</t>
+  </si>
+  <si>
+    <t>e_w397960460-380</t>
+  </si>
+  <si>
+    <t>g_w356292116-220-w397960460-380</t>
+  </si>
+  <si>
+    <t>g_w35840165-380-CH36-220</t>
+  </si>
+  <si>
+    <t>g_w36348118-220-w148015471-220</t>
+  </si>
+  <si>
+    <t>g_w36348118-220-w391576135-220</t>
+  </si>
+  <si>
+    <t>g_w364949845-220-w1327084723-220</t>
+  </si>
+  <si>
+    <t>g_w365556107-220-w35002638-220</t>
+  </si>
+  <si>
+    <t>g_w391576135-220-w1327084723-220</t>
+  </si>
+  <si>
+    <t>g_w391576135-220-w147714395-220</t>
+  </si>
+  <si>
+    <t>e_w431234146-220</t>
+  </si>
+  <si>
+    <t>g_w391576135-220-w431234146-220</t>
+  </si>
+  <si>
+    <t>e_w391577741-220</t>
+  </si>
+  <si>
+    <t>g_w391577741-220-w100662075-220</t>
+  </si>
+  <si>
+    <t>g_w391577741-220-w1105061707-220</t>
+  </si>
+  <si>
+    <t>g_w397960460-380-CH32-220</t>
+  </si>
+  <si>
+    <t>g_w402053379-220-w969811258-220</t>
+  </si>
+  <si>
+    <t>g_w402055336-220-w132373704-220</t>
+  </si>
+  <si>
+    <t>g_w44496892-220-CH41-380</t>
+  </si>
+  <si>
+    <t>g_w50319857-220-CH38-220</t>
+  </si>
+  <si>
+    <t>e_w50561341-220</t>
+  </si>
+  <si>
+    <t>g_w52738225-220-w50561341-220</t>
+  </si>
+  <si>
+    <t>g_w55695765-220-w240959264-220</t>
+  </si>
+  <si>
+    <t>g_w71500123-220-CH4-220</t>
+  </si>
+  <si>
+    <t>g_w71500123-220-r5378910-220</t>
   </si>
   <si>
     <t>e_w758315582-220</t>
   </si>
   <si>
-    <t>g_w232662311-220-w758315582-220</t>
-  </si>
-  <si>
-    <t>e_w26166640-220</t>
-  </si>
-  <si>
-    <t>g_w26166640-220-CH30-380</t>
-  </si>
-  <si>
-    <t>e_w26843160-220</t>
-  </si>
-  <si>
-    <t>g_w26843160-220-w758315582-220</t>
-  </si>
-  <si>
-    <t>g_w758943072-220-CH45-220</t>
+    <t>g_w758315582-220-CH60-225</t>
+  </si>
+  <si>
+    <t>e_w802058337-220</t>
+  </si>
+  <si>
+    <t>g_w802058337-220-CH23-220</t>
+  </si>
+  <si>
+    <t>e_w89977424-220</t>
+  </si>
+  <si>
+    <t>g_w802058337-220-w89977424-220</t>
+  </si>
+  <si>
+    <t>e_w83861269-220</t>
+  </si>
+  <si>
+    <t>g_w83861269-220-CH20-220</t>
+  </si>
+  <si>
+    <t>g_w88901626-380-CH29-220</t>
+  </si>
+  <si>
+    <t>e_w89405664-220</t>
+  </si>
+  <si>
+    <t>g_w89405664-220-w165254212-220</t>
+  </si>
+  <si>
+    <t>g_w92873516-220-CH22-220</t>
+  </si>
+  <si>
+    <t>g_w969811258-220-w132373704-220</t>
+  </si>
+  <si>
+    <t>g_w969819301-220-CH25-220</t>
+  </si>
+  <si>
+    <t>g_w969819301-220-w1086214433-220</t>
+  </si>
+  <si>
+    <t>g_w969819301-220-w758943072-220</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
@@ -341,121 +1148,232 @@
     <t>description</t>
   </si>
   <si>
-    <t>grid link -37.0 km- Al/St 240/40 4-bundle 380.0</t>
+    <t>grid link -93.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -106.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -80.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -17.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -17.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -10.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -14.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -18.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -8.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -27.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -35.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -45.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -56.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -78.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -51.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -4.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -54.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -45.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -76.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -8.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -38.0 km- Al/St 240/40 4-bundle 380.0</t>
   </si>
   <si>
     <t>grid link -95.0 km- Al/St 240/40 4-bundle 380.0</t>
   </si>
   <si>
-    <t>grid link -45.0 km- Al/St 240/40 2-bundle 220.0</t>
+    <t>grid link -7.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -6.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -3.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -9.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -38.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -30.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -22.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -65.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -28.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -36.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -12.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -28.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -13.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -32.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -10.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -55.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -29.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -42.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -23.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -21.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -25.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -19.0 km- Al/St 240/40 4-bundle 380.0</t>
   </si>
   <si>
     <t>grid link -24.0 km- Al/St 240/40 4-bundle 380.0</t>
   </si>
   <si>
-    <t>grid link -106.0 km- Al/St 240/40 2-bundle 220.0</t>
+    <t>grid link -15.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -15.0 km- Al/St 240/40 4-bundle 380.0</t>
   </si>
   <si>
     <t>grid link -18.0 km- Al/St 240/40 2-bundle 220.0</t>
   </si>
   <si>
+    <t>grid link -44.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -14.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -13.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -106.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -20.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -40.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -2.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -34.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -54.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -5.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -1.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -11.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -6.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -25.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -36.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -24.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -20.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -9.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -19.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -49.0 km- Al/St 240/40 4-bundle 380.0</t>
+  </si>
+  <si>
+    <t>grid link -37.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -23.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
+    <t>grid link -16.0 km- Al/St 240/40 2-bundle 220.0</t>
+  </si>
+  <si>
     <t>grid link -30.0 km- Al/St 240/40 2-bundle 220.0</t>
   </si>
   <si>
-    <t>grid link -93.0 km- Al/St 240/40 4-bundle 380.0</t>
-  </si>
-  <si>
-    <t>grid link -30.0 km- Al/St 240/40 4-bundle 380.0</t>
-  </si>
-  <si>
-    <t>grid link -22.0 km- Al/St 240/40 2-bundle 220.0</t>
-  </si>
-  <si>
     <t>grid link -40.0 km- Al/St 240/40 2-bundle 220.0</t>
   </si>
   <si>
-    <t>grid link -17.0 km- Al/St 240/40 4-bundle 380.0</t>
-  </si>
-  <si>
-    <t>grid link -54.0 km- Al/St 240/40 2-bundle 220.0</t>
-  </si>
-  <si>
-    <t>grid link -24.0 km- Al/St 240/40 2-bundle 220.0</t>
-  </si>
-  <si>
-    <t>grid link -21.0 km- Al/St 240/40 2-bundle 220.0</t>
-  </si>
-  <si>
-    <t>grid link -23.0 km- Al/St 240/40 2-bundle 220.0</t>
+    <t>grid link -7.0 km- Al/St 240/40 4-bundle 380.0</t>
   </si>
   <si>
     <t>grid link -33.0 km- Al/St 240/40 2-bundle 220.0</t>
   </si>
   <si>
-    <t>grid link -65.0 km- Al/St 240/40 2-bundle 220.0</t>
-  </si>
-  <si>
-    <t>grid link -36.0 km- Al/St 240/40 4-bundle 380.0</t>
-  </si>
-  <si>
-    <t>grid link -25.0 km- Al/St 240/40 4-bundle 380.0</t>
-  </si>
-  <si>
-    <t>grid link -20.0 km- Al/St 240/40 4-bundle 380.0</t>
-  </si>
-  <si>
-    <t>grid link -64.0 km- Al/St 240/40 4-bundle 380.0</t>
-  </si>
-  <si>
-    <t>grid link -36.0 km- Al/St 240/40 2-bundle 220.0</t>
-  </si>
-  <si>
-    <t>grid link -106.0 km- Al/St 240/40 4-bundle 380.0</t>
-  </si>
-  <si>
-    <t>grid link -37.0 km- Al/St 240/40 2-bundle 220.0</t>
-  </si>
-  <si>
-    <t>grid link -45.0 km- Al/St 240/40 4-bundle 380.0</t>
-  </si>
-  <si>
-    <t>grid link -19.0 km- Al/St 240/40 4-bundle 380.0</t>
-  </si>
-  <si>
-    <t>grid link -28.0 km- Al/St 240/40 2-bundle 220.0</t>
-  </si>
-  <si>
-    <t>grid link -20.0 km- Al/St 240/40 2-bundle 220.0</t>
-  </si>
-  <si>
-    <t>grid link -44.0 km- Al/St 240/40 2-bundle 220.0</t>
-  </si>
-  <si>
-    <t>grid link -56.0 km- Al/St 240/40 2-bundle 220.0</t>
-  </si>
-  <si>
-    <t>grid link -19.0 km- Al/St 240/40 2-bundle 220.0</t>
-  </si>
-  <si>
-    <t>grid link -21.0 km- Al/St 240/40 4-bundle 380.0</t>
-  </si>
-  <si>
-    <t>grid link -65.0 km- Al/St 240/40 4-bundle 380.0</t>
-  </si>
-  <si>
-    <t>grid link -27.0 km- Al/St 240/40 2-bundle 220.0</t>
-  </si>
-  <si>
-    <t>grid link -38.0 km- Al/St 240/40 2-bundle 220.0</t>
-  </si>
-  <si>
-    <t>grid link -49.0 km- Al/St 240/40 4-bundle 380.0</t>
-  </si>
-  <si>
-    <t>grid link -25.0 km- Al/St 240/40 2-bundle 220.0</t>
-  </si>
-  <si>
-    <t>grid link -17.0 km- Al/St 240/40 2-bundle 220.0</t>
+    <t>grid link -11.0 km- Al/St 240/40 4-bundle 380.0</t>
   </si>
 </sst>
 </file>
@@ -612,7 +1530,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF57EF21-6412-AACE-0EF8-EA5EE6B4AA2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB639D1-F2E3-2D25-A0B0-11C4EA8D7D6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,24 +1881,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95673755-5E18-4C12-8352-59416EE70035}">
-  <dimension ref="A1:L57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BAD81A-3FEC-4097-8634-CC6BE8AFDA51}">
+  <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="6" width="14.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.53125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.53125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>366</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -995,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>98</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
@@ -1021,10 +1939,10 @@
         <v>7</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>99</v>
+        <v>368</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>100</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -1053,7 +1971,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>101</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -1067,22 +1985,22 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>102</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -1096,22 +2014,22 @@
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>103</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -1125,22 +2043,22 @@
         <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>104</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -1154,22 +2072,22 @@
         <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>105</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -1183,22 +2101,22 @@
         <v>9</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>106</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -1212,22 +2130,22 @@
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>107</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -1241,22 +2159,22 @@
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>103</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -1270,22 +2188,22 @@
         <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>108</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -1299,22 +2217,22 @@
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>106</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -1328,22 +2246,22 @@
         <v>9</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>109</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -1357,22 +2275,22 @@
         <v>9</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>110</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
@@ -1386,22 +2304,22 @@
         <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>111</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
@@ -1415,22 +2333,22 @@
         <v>9</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>112</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
@@ -1444,22 +2362,22 @@
         <v>9</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>113</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
@@ -1473,22 +2391,22 @@
         <v>9</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>114</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
@@ -1502,22 +2420,22 @@
         <v>9</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>115</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
@@ -1531,22 +2449,22 @@
         <v>9</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>116</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
@@ -1560,22 +2478,22 @@
         <v>9</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>117</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
@@ -1589,22 +2507,22 @@
         <v>9</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>118</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
@@ -1618,22 +2536,22 @@
         <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>119</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
@@ -1647,22 +2565,22 @@
         <v>9</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>120</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
@@ -1676,22 +2594,22 @@
         <v>9</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>121</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
@@ -1705,22 +2623,22 @@
         <v>9</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>122</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
@@ -1734,22 +2652,22 @@
         <v>9</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>123</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.45">
@@ -1763,22 +2681,22 @@
         <v>9</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>124</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.45">
@@ -1792,22 +2710,22 @@
         <v>9</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>114</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.45">
@@ -1821,22 +2739,22 @@
         <v>9</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>125</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.45">
@@ -1850,22 +2768,22 @@
         <v>9</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>126</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.45">
@@ -1879,22 +2797,22 @@
         <v>9</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>115</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.45">
@@ -1908,22 +2826,22 @@
         <v>9</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>127</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.45">
@@ -1937,22 +2855,22 @@
         <v>9</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>128</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.45">
@@ -1966,22 +2884,22 @@
         <v>9</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>129</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.45">
@@ -1995,22 +2913,22 @@
         <v>9</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>130</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.45">
@@ -2024,22 +2942,22 @@
         <v>9</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>106</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.45">
@@ -2053,22 +2971,22 @@
         <v>9</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>110</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.45">
@@ -2082,22 +3000,22 @@
         <v>9</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>111</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.45">
@@ -2111,22 +3029,22 @@
         <v>9</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>131</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.45">
@@ -2140,22 +3058,22 @@
         <v>9</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>132</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.45">
@@ -2169,22 +3087,22 @@
         <v>9</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>133</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.45">
@@ -2198,22 +3116,22 @@
         <v>9</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>134</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.45">
@@ -2227,22 +3145,22 @@
         <v>9</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>126</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.45">
@@ -2256,22 +3174,22 @@
         <v>9</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>135</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.45">
@@ -2285,22 +3203,22 @@
         <v>9</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>128</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.45">
@@ -2314,22 +3232,22 @@
         <v>9</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>135</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.45">
@@ -2343,22 +3261,22 @@
         <v>9</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>136</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.45">
@@ -2372,22 +3290,22 @@
         <v>9</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>137</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.45">
@@ -2401,22 +3319,22 @@
         <v>9</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>128</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.45">
@@ -2430,22 +3348,22 @@
         <v>9</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>106</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.45">
@@ -2459,22 +3377,22 @@
         <v>9</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>106</v>
+        <v>412</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.45">
@@ -2488,22 +3406,22 @@
         <v>9</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>138</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.45">
@@ -2517,22 +3435,22 @@
         <v>9</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>139</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.45">
@@ -2546,22 +3464,4343 @@
         <v>9</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>13</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="L57" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K103" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B104" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B119" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B123" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B132" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="L134" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B136" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B137" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B139" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B141" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B142" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B144" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B145" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="4" t="s">
         <v>110</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K145" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B146" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="L146" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B147" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H147" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B148" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B149" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B150" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B151" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K151" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B152" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="L152" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B153" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B154" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B155" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B156" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B157" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K157" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="L157" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B158" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K158" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="L158" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B159" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B160" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="L160" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B161" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B162" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K162" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="L162" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="L163" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B164" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="L164" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B165" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B166" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="L166" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B167" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K167" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B168" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K168" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="L168" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B169" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K169" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="L169" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B170" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="L170" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B171" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="L171" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B172" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="L172" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B173" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="L173" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B174" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="L174" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B175" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B176" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="L176" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B177" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="L177" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B178" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B179" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="L179" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B180" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B181" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="L181" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B182" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B183" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K183" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L183" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B184" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="L184" s="5" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B185" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="L185" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B186" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="L186" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B187" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H187" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="L187" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B188" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="L188" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B189" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="H189" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="L189" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B190" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K190" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="L190" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B191" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H191" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="L191" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B192" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="L192" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B193" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="L193" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B194" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K194" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="L194" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B195" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K195" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="L195" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B196" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K196" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="L196" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B197" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H197" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K197" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="L197" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B198" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="L198" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B199" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K199" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="L199" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B200" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K200" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="L200" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B201" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K201" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="L201" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B202" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="L202" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="203" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B203" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G203" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K203" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="L203" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B204" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="L204" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="205" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B205" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G205" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H205" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K205" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="L205" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="206" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B206" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K206" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="L206" s="5" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE2F8075-09B7-4F02-9EBC-0BF0D3861DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB7B9078-E86E-4603-9DFB-BDD18F29321F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3C393480-60BB-413B-9DE4-339586EFD5B9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{ABA87F6B-08BD-4FE2-8021-8516A59467D8}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1530,7 +1530,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB639D1-F2E3-2D25-A0B0-11C4EA8D7D6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CCD42FF-A228-96CB-6D75-3B63BB4D584A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BAD81A-3FEC-4097-8634-CC6BE8AFDA51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D248EC-23E7-43AE-BF4F-49A692A07C4B}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB7B9078-E86E-4603-9DFB-BDD18F29321F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E019128C-D74E-4EEF-8F9C-295CDA855C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{ABA87F6B-08BD-4FE2-8021-8516A59467D8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D47A407C-F62F-4C72-BEE5-808C69B4E335}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1530,7 +1530,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CCD42FF-A228-96CB-6D75-3B63BB4D584A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D9ABF4-8AA4-09E5-B9C8-8224FBD23981}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D248EC-23E7-43AE-BF4F-49A692A07C4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48771268-CECB-4523-B56E-6341383B8786}">
   <dimension ref="A1:L206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{313EFF01-716E-4818-BA7F-3B6DE1F2D8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9600238-6261-4D72-A099-8544BFAAB3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{EA601BF8-1811-429B-9F20-9C49563EAC1F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B02EE528-FF52-4691-A912-611A7B74E50A}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80ADC6B8-6234-2CBA-7F41-E800565CE0AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EDE89D6-8C18-4C5D-3BB6-ED0B87532CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20007D6C-8220-4225-BFDE-3390C1C3AF81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD24608F-5814-44C8-A0A9-24B1602FD3B2}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9600238-6261-4D72-A099-8544BFAAB3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46F08AC8-FBE4-4DD0-9D27-FF6F1D758595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B02EE528-FF52-4691-A912-611A7B74E50A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CD38AC97-31D0-46A2-996B-67766589F279}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EDE89D6-8C18-4C5D-3BB6-ED0B87532CAA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2612B074-B679-C0A1-5B04-1F280070FAF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD24608F-5814-44C8-A0A9-24B1602FD3B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39F4902-DA41-4165-9774-3EB76AEF875B}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46F08AC8-FBE4-4DD0-9D27-FF6F1D758595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE00C26-AD08-4C20-856E-A95AF1716B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CD38AC97-31D0-46A2-996B-67766589F279}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{807620B3-8C67-48A5-B3D7-0104BC3D080C}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2612B074-B679-C0A1-5B04-1F280070FAF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B918BCE-3761-0E06-1269-E913760C10CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39F4902-DA41-4165-9774-3EB76AEF875B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968BCCCF-9D06-415B-9EBF-160627252CBD}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE00C26-AD08-4C20-856E-A95AF1716B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34AA09BF-EF18-42ED-8D89-87D7D4F80E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{807620B3-8C67-48A5-B3D7-0104BC3D080C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DC121E5D-0991-49D0-97F4-E0340A032654}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B918BCE-3761-0E06-1269-E913760C10CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E8ED98-7FE3-D1C0-44B1-D49223843C11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968BCCCF-9D06-415B-9EBF-160627252CBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACBE92E-725D-4DBF-8170-EC13A830E05E}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34AA09BF-EF18-42ED-8D89-87D7D4F80E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E676130-3D71-4379-924C-A6257D9DEB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DC121E5D-0991-49D0-97F4-E0340A032654}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2FD183C0-A61D-4F41-886E-010CA5ED2ED2}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78E8ED98-7FE3-D1C0-44B1-D49223843C11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E62A7A-70C4-1212-977B-8B34802E650F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACBE92E-725D-4DBF-8170-EC13A830E05E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4558E04A-8FB6-4E9A-B587-A3BDEB033CF0}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A416C58F-6E8C-4E92-99F9-590F09AF766D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3B059F6-79A5-4754-A358-AFEBF23448AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5071BD53-E3D4-440C-9C53-B28D33C392AB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B468E218-FAFD-4E97-9B6B-F97FD533EF13}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16CE072F-D4A9-DC0E-A92A-17C7C8843D7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E0B2361-4AE4-F3AD-1819-5270371783FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47AE6D4-C94B-49E9-9ADD-16618EC70C16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0B1DBB-E1D5-4366-B14E-63EC8C791CBF}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3B059F6-79A5-4754-A358-AFEBF23448AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D64922A4-C43E-46F9-BE74-7A4131199F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B468E218-FAFD-4E97-9B6B-F97FD533EF13}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BB306EEB-E336-4B73-A0EB-58E86DF1B565}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E0B2361-4AE4-F3AD-1819-5270371783FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F74A9A7-FCFA-DB1C-8E17-86A9B158E6E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0B1DBB-E1D5-4366-B14E-63EC8C791CBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFB3D8B-0008-4BBC-AC56-056E4ADF99C0}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D64922A4-C43E-46F9-BE74-7A4131199F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E20CA25-822B-46F5-A38C-9F1FEEC26A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BB306EEB-E336-4B73-A0EB-58E86DF1B565}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A751B868-9ACB-4187-B470-891F880B4F19}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1616,9 +1616,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1656,7 +1662,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F74A9A7-FCFA-DB1C-8E17-86A9B158E6E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEAE741-478C-E343-A973-CA9F32F76A16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,19 +2013,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFB3D8B-0008-4BBC-AC56-056E4ADF99C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0630AAC-71BE-436D-9EE0-CB191D2F8B72}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="6" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="28.53125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.59765625" customWidth="1"/>
+    <col min="2" max="8" width="10.59765625" customWidth="1"/>
+    <col min="11" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -2042,7 +2044,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:12" ht="31.15" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2071,7 +2073,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2100,7 +2102,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -2129,7 +2131,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -2158,7 +2160,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -2187,7 +2189,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -2216,7 +2218,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -2245,7 +2247,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2274,7 +2276,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
@@ -2303,7 +2305,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -2332,7 +2334,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -2390,7 +2392,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
@@ -2419,7 +2421,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
@@ -2448,7 +2450,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
@@ -2477,7 +2479,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
@@ -2506,7 +2508,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
@@ -2535,7 +2537,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
@@ -2564,7 +2566,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
@@ -2593,7 +2595,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -2622,7 +2624,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
@@ -2651,7 +2653,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
@@ -2680,7 +2682,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
@@ -2709,7 +2711,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
         <v>8</v>
       </c>
@@ -2738,7 +2740,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
@@ -2767,7 +2769,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
@@ -2796,7 +2798,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
@@ -2825,7 +2827,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
@@ -2854,7 +2856,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
@@ -2883,7 +2885,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
@@ -2912,7 +2914,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
@@ -2941,7 +2943,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B35" s="4" t="s">
         <v>8</v>
       </c>
@@ -2970,7 +2972,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B36" s="5" t="s">
         <v>8</v>
       </c>
@@ -2999,7 +3001,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B37" s="4" t="s">
         <v>8</v>
       </c>
@@ -3028,7 +3030,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B38" s="5" t="s">
         <v>8</v>
       </c>
@@ -3057,7 +3059,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B39" s="4" t="s">
         <v>8</v>
       </c>
@@ -3086,7 +3088,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
@@ -3115,7 +3117,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B41" s="4" t="s">
         <v>8</v>
       </c>
@@ -3144,7 +3146,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B42" s="5" t="s">
         <v>8</v>
       </c>
@@ -3173,7 +3175,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B43" s="4" t="s">
         <v>8</v>
       </c>
@@ -3202,7 +3204,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B44" s="5" t="s">
         <v>8</v>
       </c>
@@ -3231,7 +3233,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B45" s="4" t="s">
         <v>8</v>
       </c>
@@ -3260,7 +3262,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B46" s="5" t="s">
         <v>8</v>
       </c>
@@ -3289,7 +3291,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B47" s="4" t="s">
         <v>8</v>
       </c>
@@ -3318,7 +3320,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B48" s="5" t="s">
         <v>8</v>
       </c>
@@ -3347,7 +3349,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B49" s="4" t="s">
         <v>8</v>
       </c>
@@ -3376,7 +3378,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B50" s="5" t="s">
         <v>8</v>
       </c>
@@ -3405,7 +3407,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B51" s="4" t="s">
         <v>8</v>
       </c>
@@ -3434,7 +3436,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B52" s="5" t="s">
         <v>8</v>
       </c>
@@ -3463,7 +3465,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B53" s="4" t="s">
         <v>8</v>
       </c>
@@ -3492,7 +3494,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B54" s="5" t="s">
         <v>8</v>
       </c>
@@ -3521,7 +3523,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B55" s="4" t="s">
         <v>8</v>
       </c>
@@ -3550,7 +3552,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B56" s="5" t="s">
         <v>8</v>
       </c>
@@ -3579,7 +3581,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B57" s="4" t="s">
         <v>8</v>
       </c>
@@ -3608,7 +3610,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B58" s="5" t="s">
         <v>8</v>
       </c>
@@ -3637,7 +3639,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B59" s="4" t="s">
         <v>8</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B60" s="5" t="s">
         <v>8</v>
       </c>
@@ -3695,7 +3697,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B61" s="4" t="s">
         <v>8</v>
       </c>
@@ -3724,7 +3726,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B62" s="5" t="s">
         <v>8</v>
       </c>
@@ -3753,7 +3755,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B63" s="4" t="s">
         <v>8</v>
       </c>
@@ -3782,7 +3784,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B64" s="5" t="s">
         <v>8</v>
       </c>
@@ -3811,7 +3813,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B65" s="4" t="s">
         <v>8</v>
       </c>
@@ -3840,7 +3842,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B66" s="5" t="s">
         <v>8</v>
       </c>
@@ -3869,7 +3871,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B67" s="4" t="s">
         <v>8</v>
       </c>
@@ -3898,7 +3900,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B68" s="5" t="s">
         <v>8</v>
       </c>
@@ -3927,7 +3929,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B69" s="4" t="s">
         <v>8</v>
       </c>
@@ -3956,7 +3958,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B70" s="5" t="s">
         <v>8</v>
       </c>
@@ -3985,7 +3987,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B71" s="4" t="s">
         <v>8</v>
       </c>
@@ -4014,7 +4016,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B72" s="5" t="s">
         <v>8</v>
       </c>
@@ -4043,7 +4045,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B73" s="4" t="s">
         <v>8</v>
       </c>
@@ -4072,7 +4074,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B74" s="5" t="s">
         <v>8</v>
       </c>
@@ -4101,7 +4103,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B75" s="4" t="s">
         <v>8</v>
       </c>
@@ -4130,7 +4132,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B76" s="5" t="s">
         <v>8</v>
       </c>
@@ -4159,7 +4161,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B77" s="4" t="s">
         <v>8</v>
       </c>
@@ -4188,7 +4190,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B78" s="5" t="s">
         <v>8</v>
       </c>
@@ -4217,7 +4219,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B79" s="4" t="s">
         <v>8</v>
       </c>
@@ -4246,7 +4248,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B80" s="5" t="s">
         <v>8</v>
       </c>
@@ -4275,7 +4277,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B81" s="4" t="s">
         <v>8</v>
       </c>
@@ -4304,7 +4306,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B82" s="5" t="s">
         <v>8</v>
       </c>
@@ -4333,7 +4335,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B83" s="4" t="s">
         <v>8</v>
       </c>
@@ -4362,7 +4364,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B84" s="5" t="s">
         <v>8</v>
       </c>
@@ -4391,7 +4393,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B85" s="4" t="s">
         <v>8</v>
       </c>
@@ -4420,7 +4422,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B86" s="5" t="s">
         <v>8</v>
       </c>
@@ -4449,7 +4451,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B87" s="4" t="s">
         <v>8</v>
       </c>
@@ -4478,7 +4480,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B88" s="5" t="s">
         <v>8</v>
       </c>
@@ -4507,7 +4509,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B89" s="4" t="s">
         <v>8</v>
       </c>
@@ -4536,7 +4538,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B90" s="5" t="s">
         <v>8</v>
       </c>
@@ -4565,7 +4567,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B91" s="4" t="s">
         <v>8</v>
       </c>
@@ -4594,7 +4596,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B92" s="5" t="s">
         <v>8</v>
       </c>
@@ -4623,7 +4625,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B93" s="4" t="s">
         <v>8</v>
       </c>
@@ -4652,7 +4654,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B94" s="5" t="s">
         <v>8</v>
       </c>
@@ -4681,7 +4683,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B95" s="4" t="s">
         <v>8</v>
       </c>
@@ -4710,7 +4712,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B96" s="5" t="s">
         <v>8</v>
       </c>
@@ -4739,7 +4741,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B97" s="4" t="s">
         <v>8</v>
       </c>
@@ -4768,7 +4770,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B98" s="5" t="s">
         <v>8</v>
       </c>
@@ -4797,7 +4799,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B99" s="4" t="s">
         <v>8</v>
       </c>
@@ -4826,7 +4828,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B100" s="5" t="s">
         <v>8</v>
       </c>
@@ -4855,7 +4857,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B101" s="4" t="s">
         <v>8</v>
       </c>
@@ -4884,7 +4886,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B102" s="5" t="s">
         <v>8</v>
       </c>
@@ -4913,7 +4915,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B103" s="4" t="s">
         <v>8</v>
       </c>
@@ -4942,7 +4944,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B104" s="5" t="s">
         <v>8</v>
       </c>
@@ -4971,7 +4973,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B105" s="4" t="s">
         <v>8</v>
       </c>
@@ -5000,7 +5002,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B106" s="5" t="s">
         <v>8</v>
       </c>
@@ -5029,7 +5031,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B107" s="4" t="s">
         <v>8</v>
       </c>
@@ -5058,7 +5060,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B108" s="5" t="s">
         <v>8</v>
       </c>
@@ -5087,7 +5089,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B109" s="4" t="s">
         <v>8</v>
       </c>
@@ -5116,7 +5118,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B110" s="5" t="s">
         <v>8</v>
       </c>
@@ -5145,7 +5147,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B111" s="4" t="s">
         <v>8</v>
       </c>
@@ -5174,7 +5176,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B112" s="5" t="s">
         <v>8</v>
       </c>
@@ -5203,7 +5205,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B113" s="4" t="s">
         <v>8</v>
       </c>
@@ -5232,7 +5234,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B114" s="5" t="s">
         <v>8</v>
       </c>
@@ -5261,7 +5263,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B115" s="4" t="s">
         <v>8</v>
       </c>
@@ -5290,7 +5292,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B116" s="5" t="s">
         <v>8</v>
       </c>
@@ -5319,7 +5321,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B117" s="4" t="s">
         <v>8</v>
       </c>
@@ -5348,7 +5350,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B118" s="5" t="s">
         <v>8</v>
       </c>
@@ -5377,7 +5379,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B119" s="4" t="s">
         <v>8</v>
       </c>
@@ -5406,7 +5408,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B120" s="5" t="s">
         <v>8</v>
       </c>
@@ -5435,7 +5437,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B121" s="4" t="s">
         <v>8</v>
       </c>
@@ -5464,7 +5466,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B122" s="5" t="s">
         <v>8</v>
       </c>
@@ -5493,7 +5495,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B123" s="4" t="s">
         <v>8</v>
       </c>
@@ -5522,7 +5524,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B124" s="5" t="s">
         <v>8</v>
       </c>
@@ -5551,7 +5553,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B125" s="4" t="s">
         <v>8</v>
       </c>
@@ -5580,7 +5582,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B126" s="5" t="s">
         <v>8</v>
       </c>
@@ -5609,7 +5611,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B127" s="4" t="s">
         <v>8</v>
       </c>
@@ -5638,7 +5640,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B128" s="5" t="s">
         <v>8</v>
       </c>
@@ -5667,7 +5669,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B129" s="4" t="s">
         <v>8</v>
       </c>
@@ -5696,7 +5698,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B130" s="5" t="s">
         <v>8</v>
       </c>
@@ -5725,7 +5727,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B131" s="4" t="s">
         <v>8</v>
       </c>
@@ -5754,7 +5756,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B132" s="5" t="s">
         <v>8</v>
       </c>
@@ -5783,7 +5785,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B133" s="4" t="s">
         <v>8</v>
       </c>
@@ -5812,7 +5814,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B134" s="5" t="s">
         <v>8</v>
       </c>
@@ -5841,7 +5843,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B135" s="4" t="s">
         <v>8</v>
       </c>
@@ -5870,7 +5872,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B136" s="5" t="s">
         <v>8</v>
       </c>
@@ -5899,7 +5901,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B137" s="4" t="s">
         <v>8</v>
       </c>
@@ -5928,7 +5930,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B138" s="5" t="s">
         <v>8</v>
       </c>
@@ -5957,7 +5959,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B139" s="4" t="s">
         <v>8</v>
       </c>
@@ -5986,7 +5988,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B140" s="5" t="s">
         <v>8</v>
       </c>
@@ -6015,7 +6017,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B141" s="4" t="s">
         <v>8</v>
       </c>
@@ -6044,7 +6046,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B142" s="5" t="s">
         <v>8</v>
       </c>
@@ -6073,7 +6075,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B143" s="4" t="s">
         <v>8</v>
       </c>
@@ -6102,7 +6104,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B144" s="5" t="s">
         <v>8</v>
       </c>
@@ -6131,7 +6133,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B145" s="4" t="s">
         <v>8</v>
       </c>
@@ -6160,7 +6162,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B146" s="5" t="s">
         <v>8</v>
       </c>
@@ -6189,7 +6191,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B147" s="4" t="s">
         <v>8</v>
       </c>
@@ -6218,7 +6220,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B148" s="5" t="s">
         <v>8</v>
       </c>
@@ -6247,7 +6249,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B149" s="4" t="s">
         <v>8</v>
       </c>
@@ -6276,7 +6278,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B150" s="5" t="s">
         <v>8</v>
       </c>
@@ -6305,7 +6307,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B151" s="4" t="s">
         <v>8</v>
       </c>
@@ -6334,7 +6336,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B152" s="5" t="s">
         <v>8</v>
       </c>
@@ -6363,7 +6365,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B153" s="4" t="s">
         <v>8</v>
       </c>
@@ -6392,7 +6394,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B154" s="5" t="s">
         <v>8</v>
       </c>
@@ -6421,7 +6423,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B155" s="4" t="s">
         <v>8</v>
       </c>
@@ -6450,7 +6452,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B156" s="5" t="s">
         <v>8</v>
       </c>
@@ -6479,7 +6481,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B157" s="4" t="s">
         <v>8</v>
       </c>
@@ -6508,7 +6510,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B158" s="5" t="s">
         <v>8</v>
       </c>
@@ -6537,7 +6539,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B159" s="4" t="s">
         <v>8</v>
       </c>
@@ -6566,7 +6568,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B160" s="5" t="s">
         <v>8</v>
       </c>
@@ -6595,7 +6597,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B161" s="4" t="s">
         <v>8</v>
       </c>
@@ -6624,7 +6626,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B162" s="5" t="s">
         <v>8</v>
       </c>
@@ -6653,7 +6655,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B163" s="4" t="s">
         <v>8</v>
       </c>
@@ -6682,7 +6684,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B164" s="5" t="s">
         <v>8</v>
       </c>
@@ -6711,7 +6713,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B165" s="4" t="s">
         <v>8</v>
       </c>
@@ -6740,7 +6742,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B166" s="5" t="s">
         <v>8</v>
       </c>
@@ -6769,7 +6771,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="167" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B167" s="4" t="s">
         <v>8</v>
       </c>
@@ -6798,7 +6800,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="168" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B168" s="5" t="s">
         <v>8</v>
       </c>
@@ -6827,7 +6829,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="169" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B169" s="4" t="s">
         <v>8</v>
       </c>
@@ -6856,7 +6858,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="170" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B170" s="5" t="s">
         <v>8</v>
       </c>
@@ -6885,7 +6887,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="171" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B171" s="4" t="s">
         <v>8</v>
       </c>
@@ -6914,7 +6916,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="172" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B172" s="5" t="s">
         <v>8</v>
       </c>
@@ -6943,7 +6945,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="173" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B173" s="4" t="s">
         <v>8</v>
       </c>
@@ -6972,7 +6974,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="174" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B174" s="5" t="s">
         <v>8</v>
       </c>
@@ -7001,7 +7003,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="175" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B175" s="4" t="s">
         <v>8</v>
       </c>
@@ -7030,7 +7032,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="176" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B176" s="5" t="s">
         <v>8</v>
       </c>
@@ -7059,7 +7061,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="177" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B177" s="4" t="s">
         <v>8</v>
       </c>
@@ -7088,7 +7090,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="178" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B178" s="5" t="s">
         <v>8</v>
       </c>
@@ -7117,7 +7119,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="179" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B179" s="4" t="s">
         <v>8</v>
       </c>
@@ -7146,7 +7148,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="180" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B180" s="5" t="s">
         <v>8</v>
       </c>
@@ -7175,7 +7177,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="181" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B181" s="4" t="s">
         <v>8</v>
       </c>
@@ -7204,7 +7206,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="182" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B182" s="5" t="s">
         <v>8</v>
       </c>
@@ -7233,7 +7235,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="183" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B183" s="4" t="s">
         <v>8</v>
       </c>
@@ -7262,7 +7264,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="184" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B184" s="5" t="s">
         <v>8</v>
       </c>
@@ -7291,7 +7293,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="185" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B185" s="4" t="s">
         <v>8</v>
       </c>
@@ -7320,7 +7322,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="186" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B186" s="5" t="s">
         <v>8</v>
       </c>
@@ -7349,7 +7351,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="187" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B187" s="4" t="s">
         <v>8</v>
       </c>
@@ -7378,7 +7380,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="188" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B188" s="5" t="s">
         <v>8</v>
       </c>
@@ -7407,7 +7409,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="189" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B189" s="4" t="s">
         <v>8</v>
       </c>
@@ -7436,7 +7438,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="190" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B190" s="5" t="s">
         <v>8</v>
       </c>
@@ -7465,7 +7467,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="191" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B191" s="4" t="s">
         <v>8</v>
       </c>
@@ -7494,7 +7496,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="192" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B192" s="5" t="s">
         <v>8</v>
       </c>
@@ -7523,7 +7525,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B193" s="4" t="s">
         <v>8</v>
       </c>
@@ -7552,7 +7554,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="194" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B194" s="5" t="s">
         <v>8</v>
       </c>
@@ -7581,7 +7583,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="195" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B195" s="4" t="s">
         <v>8</v>
       </c>
@@ -7610,7 +7612,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="196" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B196" s="5" t="s">
         <v>8</v>
       </c>
@@ -7639,7 +7641,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="197" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B197" s="4" t="s">
         <v>8</v>
       </c>
@@ -7668,7 +7670,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="198" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B198" s="5" t="s">
         <v>8</v>
       </c>
@@ -7697,7 +7699,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="199" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B199" s="4" t="s">
         <v>8</v>
       </c>
@@ -7726,7 +7728,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="200" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B200" s="5" t="s">
         <v>8</v>
       </c>
@@ -7755,7 +7757,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="201" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B201" s="4" t="s">
         <v>8</v>
       </c>
@@ -7784,7 +7786,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="202" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B202" s="5" t="s">
         <v>8</v>
       </c>
@@ -7813,7 +7815,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="203" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B203" s="4" t="s">
         <v>8</v>
       </c>
@@ -7842,7 +7844,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="204" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B204" s="5" t="s">
         <v>8</v>
       </c>
@@ -7871,7 +7873,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="205" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B205" s="4" t="s">
         <v>8</v>
       </c>
@@ -7900,7 +7902,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="206" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B206" s="5" t="s">
         <v>8</v>
       </c>
@@ -7929,7 +7931,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="207" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B207" s="4" t="s">
         <v>8</v>
       </c>
@@ -7958,7 +7960,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="208" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B208" s="5" t="s">
         <v>8</v>
       </c>
@@ -7987,7 +7989,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="209" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B209" s="4" t="s">
         <v>8</v>
       </c>
@@ -8016,7 +8018,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="210" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B210" s="5" t="s">
         <v>8</v>
       </c>
@@ -8045,7 +8047,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B211" s="4" t="s">
         <v>8</v>
       </c>
@@ -8074,7 +8076,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B212" s="5" t="s">
         <v>8</v>
       </c>
@@ -8103,7 +8105,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B213" s="4" t="s">
         <v>8</v>
       </c>
@@ -8132,7 +8134,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
       <c r="B214" s="5" t="s">
         <v>8</v>
       </c>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E20CA25-822B-46F5-A38C-9F1FEEC26A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9617D4EF-9897-4AC4-8EAF-56902AFD2A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A751B868-9ACB-4187-B470-891F880B4F19}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{0EB879A3-0BA6-4E9D-B86D-B8271F1933AD}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1616,15 +1616,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1662,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEAE741-478C-E343-A973-CA9F32F76A16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2A18BD-EC46-1E28-960B-49A89D73FA80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,15 +2007,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0630AAC-71BE-436D-9EE0-CB191D2F8B72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC5EF18-6F83-4E51-A60B-F23467694402}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="8" width="10.59765625" customWidth="1"/>
-    <col min="11" max="12" width="10.59765625" customWidth="1"/>
+    <col min="2" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="6" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="28.53125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
@@ -2044,7 +2042,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="31.15" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -2073,7 +2071,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2102,7 +2100,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
@@ -2131,7 +2129,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -2160,7 +2158,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -2189,7 +2187,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -2218,7 +2216,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -2247,7 +2245,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2276,7 +2274,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
@@ -2305,7 +2303,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -2334,7 +2332,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
@@ -2363,7 +2361,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
         <v>8</v>
       </c>
@@ -2392,7 +2390,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
@@ -2421,7 +2419,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
@@ -2450,7 +2448,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
@@ -2479,7 +2477,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
@@ -2508,7 +2506,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
@@ -2537,7 +2535,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
@@ -2566,7 +2564,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
@@ -2595,7 +2593,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -2624,7 +2622,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
@@ -2682,7 +2680,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="5" t="s">
         <v>8</v>
       </c>
@@ -2711,7 +2709,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="4" t="s">
         <v>8</v>
       </c>
@@ -2740,7 +2738,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
@@ -2769,7 +2767,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
@@ -2798,7 +2796,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B30" s="5" t="s">
         <v>8</v>
       </c>
@@ -2827,7 +2825,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
@@ -2856,7 +2854,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
@@ -2885,7 +2883,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
@@ -2914,7 +2912,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
@@ -2943,7 +2941,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B35" s="4" t="s">
         <v>8</v>
       </c>
@@ -2972,7 +2970,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B36" s="5" t="s">
         <v>8</v>
       </c>
@@ -3001,7 +2999,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B37" s="4" t="s">
         <v>8</v>
       </c>
@@ -3030,7 +3028,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B38" s="5" t="s">
         <v>8</v>
       </c>
@@ -3059,7 +3057,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B39" s="4" t="s">
         <v>8</v>
       </c>
@@ -3088,7 +3086,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
@@ -3117,7 +3115,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B41" s="4" t="s">
         <v>8</v>
       </c>
@@ -3146,7 +3144,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B42" s="5" t="s">
         <v>8</v>
       </c>
@@ -3175,7 +3173,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B43" s="4" t="s">
         <v>8</v>
       </c>
@@ -3204,7 +3202,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B44" s="5" t="s">
         <v>8</v>
       </c>
@@ -3233,7 +3231,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B45" s="4" t="s">
         <v>8</v>
       </c>
@@ -3262,7 +3260,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B46" s="5" t="s">
         <v>8</v>
       </c>
@@ -3291,7 +3289,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B47" s="4" t="s">
         <v>8</v>
       </c>
@@ -3320,7 +3318,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B48" s="5" t="s">
         <v>8</v>
       </c>
@@ -3349,7 +3347,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B49" s="4" t="s">
         <v>8</v>
       </c>
@@ -3378,7 +3376,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B50" s="5" t="s">
         <v>8</v>
       </c>
@@ -3407,7 +3405,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B51" s="4" t="s">
         <v>8</v>
       </c>
@@ -3436,7 +3434,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B52" s="5" t="s">
         <v>8</v>
       </c>
@@ -3465,7 +3463,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B53" s="4" t="s">
         <v>8</v>
       </c>
@@ -3494,7 +3492,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B54" s="5" t="s">
         <v>8</v>
       </c>
@@ -3523,7 +3521,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B55" s="4" t="s">
         <v>8</v>
       </c>
@@ -3552,7 +3550,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B56" s="5" t="s">
         <v>8</v>
       </c>
@@ -3581,7 +3579,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B57" s="4" t="s">
         <v>8</v>
       </c>
@@ -3610,7 +3608,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B58" s="5" t="s">
         <v>8</v>
       </c>
@@ -3639,7 +3637,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B59" s="4" t="s">
         <v>8</v>
       </c>
@@ -3668,7 +3666,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B60" s="5" t="s">
         <v>8</v>
       </c>
@@ -3697,7 +3695,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B61" s="4" t="s">
         <v>8</v>
       </c>
@@ -3726,7 +3724,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B62" s="5" t="s">
         <v>8</v>
       </c>
@@ -3755,7 +3753,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B63" s="4" t="s">
         <v>8</v>
       </c>
@@ -3784,7 +3782,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B64" s="5" t="s">
         <v>8</v>
       </c>
@@ -3813,7 +3811,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B65" s="4" t="s">
         <v>8</v>
       </c>
@@ -3842,7 +3840,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B66" s="5" t="s">
         <v>8</v>
       </c>
@@ -3871,7 +3869,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B67" s="4" t="s">
         <v>8</v>
       </c>
@@ -3900,7 +3898,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B68" s="5" t="s">
         <v>8</v>
       </c>
@@ -3929,7 +3927,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B69" s="4" t="s">
         <v>8</v>
       </c>
@@ -3958,7 +3956,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B70" s="5" t="s">
         <v>8</v>
       </c>
@@ -3987,7 +3985,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B71" s="4" t="s">
         <v>8</v>
       </c>
@@ -4016,7 +4014,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B72" s="5" t="s">
         <v>8</v>
       </c>
@@ -4045,7 +4043,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B73" s="4" t="s">
         <v>8</v>
       </c>
@@ -4074,7 +4072,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B74" s="5" t="s">
         <v>8</v>
       </c>
@@ -4103,7 +4101,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B75" s="4" t="s">
         <v>8</v>
       </c>
@@ -4132,7 +4130,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="76" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B76" s="5" t="s">
         <v>8</v>
       </c>
@@ -4161,7 +4159,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B77" s="4" t="s">
         <v>8</v>
       </c>
@@ -4190,7 +4188,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B78" s="5" t="s">
         <v>8</v>
       </c>
@@ -4219,7 +4217,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B79" s="4" t="s">
         <v>8</v>
       </c>
@@ -4248,7 +4246,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="80" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B80" s="5" t="s">
         <v>8</v>
       </c>
@@ -4277,7 +4275,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B81" s="4" t="s">
         <v>8</v>
       </c>
@@ -4306,7 +4304,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="82" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B82" s="5" t="s">
         <v>8</v>
       </c>
@@ -4335,7 +4333,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="83" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B83" s="4" t="s">
         <v>8</v>
       </c>
@@ -4364,7 +4362,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="84" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B84" s="5" t="s">
         <v>8</v>
       </c>
@@ -4393,7 +4391,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="85" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B85" s="4" t="s">
         <v>8</v>
       </c>
@@ -4422,7 +4420,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="86" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B86" s="5" t="s">
         <v>8</v>
       </c>
@@ -4451,7 +4449,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="87" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B87" s="4" t="s">
         <v>8</v>
       </c>
@@ -4480,7 +4478,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B88" s="5" t="s">
         <v>8</v>
       </c>
@@ -4509,7 +4507,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B89" s="4" t="s">
         <v>8</v>
       </c>
@@ -4538,7 +4536,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B90" s="5" t="s">
         <v>8</v>
       </c>
@@ -4567,7 +4565,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B91" s="4" t="s">
         <v>8</v>
       </c>
@@ -4596,7 +4594,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B92" s="5" t="s">
         <v>8</v>
       </c>
@@ -4625,7 +4623,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B93" s="4" t="s">
         <v>8</v>
       </c>
@@ -4654,7 +4652,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B94" s="5" t="s">
         <v>8</v>
       </c>
@@ -4683,7 +4681,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B95" s="4" t="s">
         <v>8</v>
       </c>
@@ -4712,7 +4710,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B96" s="5" t="s">
         <v>8</v>
       </c>
@@ -4741,7 +4739,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="97" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B97" s="4" t="s">
         <v>8</v>
       </c>
@@ -4770,7 +4768,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="98" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B98" s="5" t="s">
         <v>8</v>
       </c>
@@ -4799,7 +4797,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B99" s="4" t="s">
         <v>8</v>
       </c>
@@ -4828,7 +4826,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B100" s="5" t="s">
         <v>8</v>
       </c>
@@ -4857,7 +4855,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B101" s="4" t="s">
         <v>8</v>
       </c>
@@ -4886,7 +4884,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B102" s="5" t="s">
         <v>8</v>
       </c>
@@ -4915,7 +4913,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B103" s="4" t="s">
         <v>8</v>
       </c>
@@ -4944,7 +4942,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B104" s="5" t="s">
         <v>8</v>
       </c>
@@ -4973,7 +4971,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B105" s="4" t="s">
         <v>8</v>
       </c>
@@ -5002,7 +5000,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B106" s="5" t="s">
         <v>8</v>
       </c>
@@ -5031,7 +5029,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B107" s="4" t="s">
         <v>8</v>
       </c>
@@ -5060,7 +5058,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B108" s="5" t="s">
         <v>8</v>
       </c>
@@ -5089,7 +5087,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B109" s="4" t="s">
         <v>8</v>
       </c>
@@ -5118,7 +5116,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B110" s="5" t="s">
         <v>8</v>
       </c>
@@ -5147,7 +5145,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B111" s="4" t="s">
         <v>8</v>
       </c>
@@ -5176,7 +5174,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B112" s="5" t="s">
         <v>8</v>
       </c>
@@ -5205,7 +5203,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B113" s="4" t="s">
         <v>8</v>
       </c>
@@ -5234,7 +5232,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B114" s="5" t="s">
         <v>8</v>
       </c>
@@ -5263,7 +5261,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B115" s="4" t="s">
         <v>8</v>
       </c>
@@ -5292,7 +5290,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B116" s="5" t="s">
         <v>8</v>
       </c>
@@ -5321,7 +5319,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B117" s="4" t="s">
         <v>8</v>
       </c>
@@ -5350,7 +5348,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B118" s="5" t="s">
         <v>8</v>
       </c>
@@ -5379,7 +5377,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="119" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B119" s="4" t="s">
         <v>8</v>
       </c>
@@ -5408,7 +5406,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="120" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B120" s="5" t="s">
         <v>8</v>
       </c>
@@ -5437,7 +5435,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B121" s="4" t="s">
         <v>8</v>
       </c>
@@ -5466,7 +5464,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B122" s="5" t="s">
         <v>8</v>
       </c>
@@ -5495,7 +5493,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="123" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B123" s="4" t="s">
         <v>8</v>
       </c>
@@ -5524,7 +5522,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="124" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B124" s="5" t="s">
         <v>8</v>
       </c>
@@ -5553,7 +5551,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="125" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B125" s="4" t="s">
         <v>8</v>
       </c>
@@ -5582,7 +5580,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="126" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B126" s="5" t="s">
         <v>8</v>
       </c>
@@ -5611,7 +5609,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="127" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B127" s="4" t="s">
         <v>8</v>
       </c>
@@ -5640,7 +5638,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="128" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B128" s="5" t="s">
         <v>8</v>
       </c>
@@ -5669,7 +5667,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="129" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B129" s="4" t="s">
         <v>8</v>
       </c>
@@ -5698,7 +5696,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="130" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B130" s="5" t="s">
         <v>8</v>
       </c>
@@ -5727,7 +5725,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="131" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B131" s="4" t="s">
         <v>8</v>
       </c>
@@ -5756,7 +5754,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="132" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B132" s="5" t="s">
         <v>8</v>
       </c>
@@ -5785,7 +5783,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="133" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B133" s="4" t="s">
         <v>8</v>
       </c>
@@ -5814,7 +5812,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="134" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B134" s="5" t="s">
         <v>8</v>
       </c>
@@ -5843,7 +5841,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="135" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B135" s="4" t="s">
         <v>8</v>
       </c>
@@ -5872,7 +5870,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="136" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B136" s="5" t="s">
         <v>8</v>
       </c>
@@ -5901,7 +5899,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="137" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B137" s="4" t="s">
         <v>8</v>
       </c>
@@ -5930,7 +5928,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="138" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B138" s="5" t="s">
         <v>8</v>
       </c>
@@ -5959,7 +5957,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="139" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B139" s="4" t="s">
         <v>8</v>
       </c>
@@ -5988,7 +5986,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="140" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B140" s="5" t="s">
         <v>8</v>
       </c>
@@ -6017,7 +6015,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="141" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B141" s="4" t="s">
         <v>8</v>
       </c>
@@ -6046,7 +6044,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="142" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B142" s="5" t="s">
         <v>8</v>
       </c>
@@ -6075,7 +6073,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="143" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B143" s="4" t="s">
         <v>8</v>
       </c>
@@ -6104,7 +6102,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="144" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B144" s="5" t="s">
         <v>8</v>
       </c>
@@ -6133,7 +6131,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="145" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B145" s="4" t="s">
         <v>8</v>
       </c>
@@ -6162,7 +6160,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="146" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B146" s="5" t="s">
         <v>8</v>
       </c>
@@ -6191,7 +6189,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="147" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B147" s="4" t="s">
         <v>8</v>
       </c>
@@ -6220,7 +6218,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="148" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B148" s="5" t="s">
         <v>8</v>
       </c>
@@ -6249,7 +6247,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="149" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B149" s="4" t="s">
         <v>8</v>
       </c>
@@ -6278,7 +6276,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="150" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B150" s="5" t="s">
         <v>8</v>
       </c>
@@ -6307,7 +6305,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="151" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B151" s="4" t="s">
         <v>8</v>
       </c>
@@ -6336,7 +6334,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="152" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B152" s="5" t="s">
         <v>8</v>
       </c>
@@ -6365,7 +6363,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="153" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B153" s="4" t="s">
         <v>8</v>
       </c>
@@ -6394,7 +6392,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="154" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B154" s="5" t="s">
         <v>8</v>
       </c>
@@ -6423,7 +6421,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="155" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B155" s="4" t="s">
         <v>8</v>
       </c>
@@ -6452,7 +6450,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="156" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B156" s="5" t="s">
         <v>8</v>
       </c>
@@ -6481,7 +6479,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="157" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B157" s="4" t="s">
         <v>8</v>
       </c>
@@ -6510,7 +6508,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="158" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B158" s="5" t="s">
         <v>8</v>
       </c>
@@ -6539,7 +6537,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="159" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B159" s="4" t="s">
         <v>8</v>
       </c>
@@ -6568,7 +6566,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="160" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B160" s="5" t="s">
         <v>8</v>
       </c>
@@ -6597,7 +6595,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="161" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B161" s="4" t="s">
         <v>8</v>
       </c>
@@ -6626,7 +6624,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="162" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B162" s="5" t="s">
         <v>8</v>
       </c>
@@ -6655,7 +6653,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="163" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B163" s="4" t="s">
         <v>8</v>
       </c>
@@ -6684,7 +6682,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="164" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B164" s="5" t="s">
         <v>8</v>
       </c>
@@ -6713,7 +6711,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="165" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B165" s="4" t="s">
         <v>8</v>
       </c>
@@ -6742,7 +6740,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="166" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B166" s="5" t="s">
         <v>8</v>
       </c>
@@ -6771,7 +6769,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B167" s="4" t="s">
         <v>8</v>
       </c>
@@ -6800,7 +6798,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="168" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B168" s="5" t="s">
         <v>8</v>
       </c>
@@ -6829,7 +6827,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="169" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B169" s="4" t="s">
         <v>8</v>
       </c>
@@ -6858,7 +6856,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="170" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B170" s="5" t="s">
         <v>8</v>
       </c>
@@ -6887,7 +6885,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="171" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B171" s="4" t="s">
         <v>8</v>
       </c>
@@ -6916,7 +6914,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="172" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B172" s="5" t="s">
         <v>8</v>
       </c>
@@ -6945,7 +6943,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B173" s="4" t="s">
         <v>8</v>
       </c>
@@ -6974,7 +6972,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B174" s="5" t="s">
         <v>8</v>
       </c>
@@ -7003,7 +7001,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="175" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B175" s="4" t="s">
         <v>8</v>
       </c>
@@ -7032,7 +7030,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="176" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B176" s="5" t="s">
         <v>8</v>
       </c>
@@ -7061,7 +7059,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="177" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B177" s="4" t="s">
         <v>8</v>
       </c>
@@ -7090,7 +7088,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="178" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B178" s="5" t="s">
         <v>8</v>
       </c>
@@ -7119,7 +7117,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="179" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B179" s="4" t="s">
         <v>8</v>
       </c>
@@ -7148,7 +7146,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="180" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B180" s="5" t="s">
         <v>8</v>
       </c>
@@ -7177,7 +7175,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="181" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B181" s="4" t="s">
         <v>8</v>
       </c>
@@ -7206,7 +7204,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="182" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B182" s="5" t="s">
         <v>8</v>
       </c>
@@ -7235,7 +7233,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="183" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B183" s="4" t="s">
         <v>8</v>
       </c>
@@ -7264,7 +7262,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="184" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B184" s="5" t="s">
         <v>8</v>
       </c>
@@ -7293,7 +7291,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="185" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B185" s="4" t="s">
         <v>8</v>
       </c>
@@ -7322,7 +7320,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="186" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B186" s="5" t="s">
         <v>8</v>
       </c>
@@ -7351,7 +7349,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="187" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B187" s="4" t="s">
         <v>8</v>
       </c>
@@ -7380,7 +7378,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="188" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B188" s="5" t="s">
         <v>8</v>
       </c>
@@ -7409,7 +7407,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="189" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B189" s="4" t="s">
         <v>8</v>
       </c>
@@ -7438,7 +7436,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="190" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B190" s="5" t="s">
         <v>8</v>
       </c>
@@ -7467,7 +7465,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="191" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B191" s="4" t="s">
         <v>8</v>
       </c>
@@ -7496,7 +7494,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="192" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B192" s="5" t="s">
         <v>8</v>
       </c>
@@ -7525,7 +7523,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="193" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B193" s="4" t="s">
         <v>8</v>
       </c>
@@ -7554,7 +7552,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="194" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B194" s="5" t="s">
         <v>8</v>
       </c>
@@ -7583,7 +7581,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="195" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B195" s="4" t="s">
         <v>8</v>
       </c>
@@ -7612,7 +7610,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="196" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B196" s="5" t="s">
         <v>8</v>
       </c>
@@ -7641,7 +7639,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="197" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B197" s="4" t="s">
         <v>8</v>
       </c>
@@ -7670,7 +7668,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="198" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B198" s="5" t="s">
         <v>8</v>
       </c>
@@ -7699,7 +7697,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="199" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B199" s="4" t="s">
         <v>8</v>
       </c>
@@ -7728,7 +7726,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="200" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B200" s="5" t="s">
         <v>8</v>
       </c>
@@ -7757,7 +7755,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="201" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B201" s="4" t="s">
         <v>8</v>
       </c>
@@ -7786,7 +7784,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="202" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B202" s="5" t="s">
         <v>8</v>
       </c>
@@ -7815,7 +7813,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="203" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B203" s="4" t="s">
         <v>8</v>
       </c>
@@ -7844,7 +7842,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="204" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B204" s="5" t="s">
         <v>8</v>
       </c>
@@ -7873,7 +7871,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="205" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B205" s="4" t="s">
         <v>8</v>
       </c>
@@ -7902,7 +7900,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="206" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B206" s="5" t="s">
         <v>8</v>
       </c>
@@ -7931,7 +7929,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="207" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B207" s="4" t="s">
         <v>8</v>
       </c>
@@ -7960,7 +7958,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="208" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B208" s="5" t="s">
         <v>8</v>
       </c>
@@ -7989,7 +7987,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="209" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B209" s="4" t="s">
         <v>8</v>
       </c>
@@ -8018,7 +8016,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="210" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B210" s="5" t="s">
         <v>8</v>
       </c>
@@ -8047,7 +8045,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="211" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B211" s="4" t="s">
         <v>8</v>
       </c>
@@ -8076,7 +8074,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="212" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B212" s="5" t="s">
         <v>8</v>
       </c>
@@ -8105,7 +8103,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="213" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B213" s="4" t="s">
         <v>8</v>
       </c>
@@ -8134,7 +8132,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="214" spans="2:12" ht="78.75" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B214" s="5" t="s">
         <v>8</v>
       </c>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9617D4EF-9897-4AC4-8EAF-56902AFD2A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9618221F-68AF-4AA0-9AFF-60D4ACA82B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{0EB879A3-0BA6-4E9D-B86D-B8271F1933AD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2701C28F-7851-4CB3-9AE1-D3A006C0905C}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2A18BD-EC46-1E28-960B-49A89D73FA80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A2B2CD-26A4-A610-E3E6-02F15C50DD31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC5EF18-6F83-4E51-A60B-F23467694402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D66368A-60CC-418E-AA1B-80F8E5A3BBC4}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9618221F-68AF-4AA0-9AFF-60D4ACA82B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5E47AE6-778C-472C-B733-C73160D7E706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2701C28F-7851-4CB3-9AE1-D3A006C0905C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{12150D09-33ED-41E2-BDFE-D9878D150082}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A2B2CD-26A4-A610-E3E6-02F15C50DD31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B891579C-F687-D773-46FF-B8AF5B4DD053}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D66368A-60CC-418E-AA1B-80F8E5A3BBC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CC1266-7E4C-481F-924D-720BE25DDDC6}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5E47AE6-778C-472C-B733-C73160D7E706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE88A4B-5D15-4C76-B24D-7BA1B6442185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{12150D09-33ED-41E2-BDFE-D9878D150082}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C97D2971-61B4-4FB5-94C2-2DFDF1611C08}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B891579C-F687-D773-46FF-B8AF5B4DD053}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC1C3B0-7FEA-39A7-569B-75E1878BA2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CC1266-7E4C-481F-924D-720BE25DDDC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FB8848-9BC5-4191-80F7-F9AE1A13CECD}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AE88A4B-5D15-4C76-B24D-7BA1B6442185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AC68E56-90AA-47B3-AF57-D6A951508583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C97D2971-61B4-4FB5-94C2-2DFDF1611C08}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DA747811-1308-455C-830A-FD8FE62A968E}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC1C3B0-7FEA-39A7-569B-75E1878BA2E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE912615-F284-DA35-D53F-675FF4FEA818}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FB8848-9BC5-4191-80F7-F9AE1A13CECD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC92CD3-D52E-440C-9322-9B2CA47321FB}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AC68E56-90AA-47B3-AF57-D6A951508583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EC1A519-C5D4-40DF-9EE0-0C2D5A64FF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{DA747811-1308-455C-830A-FD8FE62A968E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2E635336-BF99-475C-A78A-BDEDC9CCD6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE912615-F284-DA35-D53F-675FF4FEA818}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEB7EC2-CDB5-1257-184A-2592382122F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC92CD3-D52E-440C-9322-9B2CA47321FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D4E626-90CE-45BA-A96A-DD422AEAC258}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EC1A519-C5D4-40DF-9EE0-0C2D5A64FF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{979A0BB5-FEC7-476A-87E5-6D87A344319E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2E635336-BF99-475C-A78A-BDEDC9CCD6BD}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8613B11C-BD42-43FA-9E22-1C89BD0E4183}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEB7EC2-CDB5-1257-184A-2592382122F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DAAC8D4-D4FB-FE67-B7AB-2E2E359C0904}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D4E626-90CE-45BA-A96A-DD422AEAC258}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62399E3D-B924-413D-8D39-264FA41236E7}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{979A0BB5-FEC7-476A-87E5-6D87A344319E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAB9BC04-165D-4726-BB45-EB7EAC0EF026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8613B11C-BD42-43FA-9E22-1C89BD0E4183}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CCF9389B-EB7D-45B9-A19C-A374702EF088}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DAAC8D4-D4FB-FE67-B7AB-2E2E359C0904}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7AAD10-6AB3-76A0-4D87-13089E8EAA06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62399E3D-B924-413D-8D39-264FA41236E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C802DCEC-E36E-4652-AFAE-3D976DD5952E}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAB9BC04-165D-4726-BB45-EB7EAC0EF026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECC93A0B-F631-44A8-8EFD-83C96F1F96B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CCF9389B-EB7D-45B9-A19C-A374702EF088}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BFA70633-6DE7-48EF-AD89-D525CA5E3AFB}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC7AAD10-6AB3-76A0-4D87-13089E8EAA06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7410542A-5E3D-9173-408D-B334BD7DFB40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C802DCEC-E36E-4652-AFAE-3D976DD5952E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E6ABD4-E4E7-449F-B19A-12EEBEE1E94D}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECC93A0B-F631-44A8-8EFD-83C96F1F96B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{186AE4A3-2E97-4DEA-A932-B53451882AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BFA70633-6DE7-48EF-AD89-D525CA5E3AFB}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CDE0BA65-9CAE-494C-810C-9F63837239C9}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7410542A-5E3D-9173-408D-B334BD7DFB40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FE7F87-8564-DECA-798D-24236E9234AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E6ABD4-E4E7-449F-B19A-12EEBEE1E94D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED0AA8E-5738-4BE2-A5F3-E2EE2E9428A1}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{186AE4A3-2E97-4DEA-A932-B53451882AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0082441-C21C-48B5-A2E8-128A013BDE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CDE0BA65-9CAE-494C-810C-9F63837239C9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1D1E0755-328E-451B-BEF9-197DCF1D2EAF}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FE7F87-8564-DECA-798D-24236E9234AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176551B4-9E12-596B-8B99-D671E8767489}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED0AA8E-5738-4BE2-A5F3-E2EE2E9428A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44040F2B-0732-4E58-A5CE-7E47315578D2}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0082441-C21C-48B5-A2E8-128A013BDE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E0B560-112D-455B-8F8B-96BE1BA795A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{1D1E0755-328E-451B-BEF9-197DCF1D2EAF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BA2D0F69-728D-4BCE-A92E-0E1ACD8802F6}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176551B4-9E12-596B-8B99-D671E8767489}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF976ED-5A25-54A1-49A4-8B4C95F7E5F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44040F2B-0732-4E58-A5CE-7E47315578D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6717A9F1-007A-48A6-B087-8BC10482BEF6}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E0B560-112D-455B-8F8B-96BE1BA795A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{144D0C53-D1DC-4AF3-BAFE-E38B3DD4D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BA2D0F69-728D-4BCE-A92E-0E1ACD8802F6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{90B04654-7DA5-4C6A-91A9-987848072886}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF976ED-5A25-54A1-49A4-8B4C95F7E5F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864AB0E6-5055-2B7A-D2C0-2C2611511A78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6717A9F1-007A-48A6-B087-8BC10482BEF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E772E4-B85F-40BC-A0B1-15AF7C9ED20C}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{144D0C53-D1DC-4AF3-BAFE-E38B3DD4D14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6B6D74A-7E09-42EA-BA5A-80A1A2E48722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{90B04654-7DA5-4C6A-91A9-987848072886}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5E1CA888-3981-480B-B19D-893F2ED22CA2}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864AB0E6-5055-2B7A-D2C0-2C2611511A78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B98DD85-35C6-3A7C-730B-33482090DEF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E772E4-B85F-40BC-A0B1-15AF7C9ED20C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BB2609-0B84-40A7-9ED9-D9E8E52F787B}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6B6D74A-7E09-42EA-BA5A-80A1A2E48722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12846121-1E2D-416D-897F-CE55C7A8486F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{5E1CA888-3981-480B-B19D-893F2ED22CA2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{99186877-BE4B-408A-99BA-94DEFE877FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B98DD85-35C6-3A7C-730B-33482090DEF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FE4884-A82B-455D-2D61-415B8C24D8C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BB2609-0B84-40A7-9ED9-D9E8E52F787B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF60B8D-DD52-419E-8D63-252CE24DF62C}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12846121-1E2D-416D-897F-CE55C7A8486F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D05D1E2-E2A9-4837-98C8-A8D449702E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{99186877-BE4B-408A-99BA-94DEFE877FDF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F57E7E45-AA86-4455-8DE4-0D85B785155A}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FE4884-A82B-455D-2D61-415B8C24D8C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BFF132-A72F-97BA-744A-C0F7418CC576}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF60B8D-DD52-419E-8D63-252CE24DF62C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA84076-B732-4A8B-BA5E-BDB5FCF44961}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D05D1E2-E2A9-4837-98C8-A8D449702E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0F78DF-6147-4CFA-B570-F968FD04129C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F57E7E45-AA86-4455-8DE4-0D85B785155A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3996F359-8435-4636-9CFE-5063CCE0E3B2}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BFF132-A72F-97BA-744A-C0F7418CC576}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16D6038-99A4-E3ED-29DF-680F80A4435F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA84076-B732-4A8B-BA5E-BDB5FCF44961}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1421A922-C34B-4E04-A984-BAF712824603}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D0F78DF-6147-4CFA-B570-F968FD04129C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F673E0-75E9-4B4D-AF5A-E4F2E750BB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3996F359-8435-4636-9CFE-5063CCE0E3B2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{817A69A7-B86C-4346-842F-B7ADCC9CB213}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A16D6038-99A4-E3ED-29DF-680F80A4435F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57009D5-45C4-A07E-AD01-57378AA40423}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1421A922-C34B-4E04-A984-BAF712824603}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E495065A-3E1A-44B5-9489-AA0189525778}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F673E0-75E9-4B4D-AF5A-E4F2E750BB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37451933-5BC5-4CB5-90B9-9FBAA79B72A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{817A69A7-B86C-4346-842F-B7ADCC9CB213}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{87BC4D9A-C64E-4B22-9F71-D254F6135B75}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57009D5-45C4-A07E-AD01-57378AA40423}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088EADDD-8B70-D0F2-E06F-1E8F30EE61B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E495065A-3E1A-44B5-9489-AA0189525778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B42EDEE-5BCB-4195-A8A5-6082854AF8AE}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37451933-5BC5-4CB5-90B9-9FBAA79B72A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F83E9B55-E8BB-4CCC-9D2A-F602F6F5B6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{87BC4D9A-C64E-4B22-9F71-D254F6135B75}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F376EEFE-3C22-4F25-9161-484D6F5508C9}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088EADDD-8B70-D0F2-E06F-1E8F30EE61B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501EF79C-40CF-BF46-B611-11B8D146249F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B42EDEE-5BCB-4195-A8A5-6082854AF8AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A3A089-32EA-4CFA-A165-68EF7DFF31E2}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F83E9B55-E8BB-4CCC-9D2A-F602F6F5B6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C422D098-7FFF-4880-8A09-0FE7CCDD2657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F376EEFE-3C22-4F25-9161-484D6F5508C9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{06D2D8EF-E10C-4F0B-815D-B168702A88D1}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501EF79C-40CF-BF46-B611-11B8D146249F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56DD973-38AC-359A-6E7E-A9FB45208A15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A3A089-32EA-4CFA-A165-68EF7DFF31E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBF6645-0801-4FCA-B8F2-9A02AC5BE97D}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C422D098-7FFF-4880-8A09-0FE7CCDD2657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{027A92C2-8D5E-4EF5-AD6D-2DE48D74C3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{06D2D8EF-E10C-4F0B-815D-B168702A88D1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8A7DED55-170E-4E06-81EF-F6FC340B2985}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56DD973-38AC-359A-6E7E-A9FB45208A15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759C66E8-76D9-5FEA-CC0B-15305916DA11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBF6645-0801-4FCA-B8F2-9A02AC5BE97D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4220658-348A-4F07-877D-185D698A5FBE}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{027A92C2-8D5E-4EF5-AD6D-2DE48D74C3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C10E534E-73A3-46DB-8C2A-8236916151B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{8A7DED55-170E-4E06-81EF-F6FC340B2985}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BC29C751-1283-49D0-B940-123F61EAE4A0}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759C66E8-76D9-5FEA-CC0B-15305916DA11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3965EE3-E43C-15AA-4CB6-54DCCE9DF384}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4220658-348A-4F07-877D-185D698A5FBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8446B2-CE20-4CA3-A38D-3F3924370F5A}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C10E534E-73A3-46DB-8C2A-8236916151B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C64D14A-A91D-4FB4-AF3E-ED59BA2CF866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BC29C751-1283-49D0-B940-123F61EAE4A0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{AE894EAF-D8E4-4756-996D-4BEE26DC6368}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3965EE3-E43C-15AA-4CB6-54DCCE9DF384}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B03594-1DCA-2B05-A6B9-B69CF0E7BB31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8446B2-CE20-4CA3-A38D-3F3924370F5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC600363-3743-4870-948D-710B21F2087D}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C64D14A-A91D-4FB4-AF3E-ED59BA2CF866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A260E9CD-672A-4AA9-9118-45ADEE9843D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{AE894EAF-D8E4-4756-996D-4BEE26DC6368}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3AF74F74-B748-4DCF-A01B-15FBBA12458E}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B03594-1DCA-2B05-A6B9-B69CF0E7BB31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8046E930-5463-2560-B0C3-1E24DB95896A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC600363-3743-4870-948D-710B21F2087D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E970D2-9E0A-4881-8343-7429A7C46A4C}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A260E9CD-672A-4AA9-9118-45ADEE9843D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B182E066-EB79-46F9-9706-CD413DE9A2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3AF74F74-B748-4DCF-A01B-15FBBA12458E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A6166105-1AE7-490B-961C-3F0B1A56C87C}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8046E930-5463-2560-B0C3-1E24DB95896A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9748EFFE-CE39-66D7-08A7-39467E1B5F53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E970D2-9E0A-4881-8343-7429A7C46A4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F0A0E3-72B9-4DEB-B76C-90EE2E26E992}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B182E066-EB79-46F9-9706-CD413DE9A2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81FA607B-9B16-4874-9769-E55E3D5DC103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A6166105-1AE7-490B-961C-3F0B1A56C87C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{33BD3861-5CA9-47C6-81BE-AF385FC40F5F}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9748EFFE-CE39-66D7-08A7-39467E1B5F53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE727EC7-61BE-B5F1-109B-591CA2A9B818}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F0A0E3-72B9-4DEB-B76C-90EE2E26E992}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47D3784-85F6-4D0F-A18D-B1E9F9A1283B}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81FA607B-9B16-4874-9769-E55E3D5DC103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A5CBDC2-67DC-4F8D-9A6D-ABD6A680D31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{33BD3861-5CA9-47C6-81BE-AF385FC40F5F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FABC1149-E02B-4E90-9637-E00886886604}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE727EC7-61BE-B5F1-109B-591CA2A9B818}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6E5A02-8D2E-323B-C352-9C8D059A83BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47D3784-85F6-4D0F-A18D-B1E9F9A1283B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58368F9C-AE66-4F77-80DC-F637B39CDC17}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A5CBDC2-67DC-4F8D-9A6D-ABD6A680D31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8B82DAF-8C15-461C-ADEB-15A7806A98A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FABC1149-E02B-4E90-9637-E00886886604}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B6A6FB84-AD1B-45E5-9A71-E475C13AACF0}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6E5A02-8D2E-323B-C352-9C8D059A83BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7663C9-DEF4-BA81-EC7E-9CA7E6591503}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58368F9C-AE66-4F77-80DC-F637B39CDC17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B87E7B-43DB-4B2C-9B8F-6268F617976D}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8B82DAF-8C15-461C-ADEB-15A7806A98A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE42F57B-7602-4463-82BD-84C7F927981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{B6A6FB84-AD1B-45E5-9A71-E475C13AACF0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{BFE2358D-E11E-48C5-A52B-0C15958608D7}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1656,7 +1656,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA7663C9-DEF4-BA81-EC7E-9CA7E6591503}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CF430A6-9566-B701-FE56-1FD9D723F739}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B87E7B-43DB-4B2C-9B8F-6268F617976D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E47BF6-1C56-4733-817D-392435E79A3A}">
   <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96CFF7AB-7C21-4FCE-ACE9-74689E77B4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75F1878F-1546-4048-AC1C-936CA11796EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{56C567A7-6B07-46F6-BA05-7BD644DC8053}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F71D0283-C820-4BA2-936C-9F69BF2ECB6A}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1867,7 +1867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DA86CC-8AAA-47B1-9055-FD5D2915D39D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927D55D0-A7B7-41B4-866C-6BF477313DC0}">
   <dimension ref="B3:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/trades/scentrade__trade_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75F1878F-1546-4048-AC1C-936CA11796EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD7861D9-EF7F-44C9-AF86-07026B822006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{F71D0283-C820-4BA2-936C-9F69BF2ECB6A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{73424153-0203-44DC-B433-CD8F7E07313C}"/>
   </bookViews>
   <sheets>
     <sheet name="grid_links" sheetId="1" r:id="rId1"/>
@@ -1867,7 +1867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927D55D0-A7B7-41B4-866C-6BF477313DC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D067F82-A163-4D0F-8344-6F617698B409}">
   <dimension ref="B3:L214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
